--- a/ep/ep/export/flourish/Romania_name_party.xlsx
+++ b/ep/ep/export/flourish/Romania_name_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="133">
   <si>
     <t>name1</t>
   </si>
@@ -379,17 +379,47 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/aldero.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fdgr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pmp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pnl.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pntcd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/prm.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/psd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/unpr.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +434,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,16 +475,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,6 +849,9 @@
       <c r="C2" t="s">
         <v>113</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E2">
         <v>0.969</v>
       </c>
@@ -838,6 +884,9 @@
       <c r="C3" t="s">
         <v>114</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E3">
         <v>0.663</v>
       </c>
@@ -852,6 +901,9 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E4">
         <v>0.658</v>
       </c>
@@ -893,6 +945,9 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L5">
         <v>0.895</v>
       </c>
@@ -919,6 +974,9 @@
       <c r="C6" t="s">
         <v>117</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E6">
         <v>0.85</v>
       </c>
@@ -969,6 +1027,9 @@
       <c r="C7" t="s">
         <v>118</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L7">
         <v>0.851</v>
       </c>
@@ -983,6 +1044,9 @@
       <c r="C8" t="s">
         <v>119</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E8">
         <v>0.577</v>
       </c>
@@ -1015,6 +1079,9 @@
       <c r="C9" t="s">
         <v>120</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E9">
         <v>0.781</v>
       </c>
@@ -1065,6 +1132,9 @@
       <c r="C10" t="s">
         <v>121</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E10">
         <v>0.6830000000000001</v>
       </c>
@@ -1115,6 +1185,9 @@
       <c r="C11" t="s">
         <v>122</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L11">
         <v>0.822</v>
       </c>
@@ -1135,6 +1208,9 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -1149,6 +1225,9 @@
       <c r="C13" t="s">
         <v>117</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G13">
         <v>0.9340000000000001</v>
       </c>
@@ -1163,6 +1242,9 @@
       <c r="C14" t="s">
         <v>120</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G14">
         <v>0.762</v>
       </c>
@@ -1177,6 +1259,9 @@
       <c r="C15" t="s">
         <v>121</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G15">
         <v>0.953</v>
       </c>
@@ -1191,6 +1276,9 @@
       <c r="C16" t="s">
         <v>113</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E16">
         <v>0.725</v>
       </c>
@@ -1208,6 +1296,9 @@
       <c r="C17" t="s">
         <v>114</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E17">
         <v>0.539</v>
       </c>
@@ -1222,6 +1313,9 @@
       <c r="C18" t="s">
         <v>115</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E18">
         <v>0.695</v>
       </c>
@@ -1245,6 +1339,9 @@
       <c r="C19" t="s">
         <v>116</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L19">
         <v>0.785</v>
       </c>
@@ -1259,6 +1356,9 @@
       <c r="C20" t="s">
         <v>117</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E20">
         <v>0.6889999999999999</v>
       </c>
@@ -1294,6 +1394,9 @@
       <c r="C21" t="s">
         <v>118</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L21">
         <v>0.775</v>
       </c>
@@ -1308,6 +1411,9 @@
       <c r="C22" t="s">
         <v>119</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E22">
         <v>0.5629999999999999</v>
       </c>
@@ -1340,6 +1446,9 @@
       <c r="C23" t="s">
         <v>120</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E23">
         <v>0.949</v>
       </c>
@@ -1375,6 +1484,9 @@
       <c r="C24" t="s">
         <v>121</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E24">
         <v>0.639</v>
       </c>
@@ -1410,6 +1522,9 @@
       <c r="C25" t="s">
         <v>113</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E25">
         <v>0.763</v>
       </c>
@@ -1424,6 +1539,9 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E26">
         <v>0.5610000000000001</v>
       </c>
@@ -1438,6 +1556,9 @@
       <c r="C27" t="s">
         <v>115</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E27">
         <v>0.61</v>
       </c>
@@ -1452,6 +1573,9 @@
       <c r="C28" t="s">
         <v>117</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E28">
         <v>0.6860000000000001</v>
       </c>
@@ -1466,6 +1590,9 @@
       <c r="C29" t="s">
         <v>119</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E29">
         <v>0.594</v>
       </c>
@@ -1480,6 +1607,9 @@
       <c r="C30" t="s">
         <v>120</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E30">
         <v>0.969</v>
       </c>
@@ -1494,6 +1624,9 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E31">
         <v>0.638</v>
       </c>
@@ -1508,6 +1641,9 @@
       <c r="C32" t="s">
         <v>115</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -1522,6 +1658,9 @@
       <c r="C33" t="s">
         <v>117</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G33">
         <v>0.9409999999999999</v>
       </c>
@@ -1536,6 +1675,9 @@
       <c r="C34" t="s">
         <v>120</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G34">
         <v>0.716</v>
       </c>
@@ -1550,6 +1692,9 @@
       <c r="C35" t="s">
         <v>121</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G35">
         <v>0.962</v>
       </c>
@@ -1564,6 +1709,9 @@
       <c r="C36" t="s">
         <v>113</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E36">
         <v>0.859</v>
       </c>
@@ -1578,6 +1726,9 @@
       <c r="C37" t="s">
         <v>114</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E37">
         <v>0.793</v>
       </c>
@@ -1592,6 +1743,9 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E38">
         <v>0.617</v>
       </c>
@@ -1606,6 +1760,9 @@
       <c r="C39" t="s">
         <v>117</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E39">
         <v>0.849</v>
       </c>
@@ -1620,6 +1777,9 @@
       <c r="C40" t="s">
         <v>119</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E40">
         <v>0.575</v>
       </c>
@@ -1634,6 +1794,9 @@
       <c r="C41" t="s">
         <v>120</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E41">
         <v>0.642</v>
       </c>
@@ -1648,6 +1811,9 @@
       <c r="C42" t="s">
         <v>121</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E42">
         <v>0.78</v>
       </c>
@@ -1662,6 +1828,9 @@
       <c r="C43" t="s">
         <v>117</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G43">
         <v>0.8100000000000001</v>
       </c>
@@ -1676,6 +1845,9 @@
       <c r="C44" t="s">
         <v>120</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G44">
         <v>0.979</v>
       </c>
@@ -1690,6 +1862,9 @@
       <c r="C45" t="s">
         <v>121</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G45">
         <v>0.825</v>
       </c>
@@ -1704,6 +1879,9 @@
       <c r="C46" t="s">
         <v>113</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L46">
         <v>0.984</v>
       </c>
@@ -1733,6 +1911,9 @@
       <c r="C47" t="s">
         <v>115</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L47">
         <v>0.869</v>
       </c>
@@ -1762,6 +1943,9 @@
       <c r="C48" t="s">
         <v>116</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L48">
         <v>0.886</v>
       </c>
@@ -1788,6 +1972,9 @@
       <c r="C49" t="s">
         <v>117</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L49">
         <v>0.88</v>
       </c>
@@ -1817,6 +2004,9 @@
       <c r="C50" t="s">
         <v>120</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L50">
         <v>0.981</v>
       </c>
@@ -1846,6 +2036,9 @@
       <c r="C51" t="s">
         <v>121</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L51">
         <v>0.889</v>
       </c>
@@ -1875,6 +2068,9 @@
       <c r="C52" t="s">
         <v>122</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L52">
         <v>0.985</v>
       </c>
@@ -1895,6 +2091,9 @@
       <c r="C53" t="s">
         <v>113</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E53">
         <v>0.711</v>
       </c>
@@ -1909,6 +2108,9 @@
       <c r="C54" t="s">
         <v>114</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E54">
         <v>0.821</v>
       </c>
@@ -1923,6 +2125,9 @@
       <c r="C55" t="s">
         <v>115</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E55">
         <v>0.539</v>
       </c>
@@ -1937,6 +2142,9 @@
       <c r="C56" t="s">
         <v>117</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E56">
         <v>0.767</v>
       </c>
@@ -1951,6 +2159,9 @@
       <c r="C57" t="s">
         <v>119</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E57">
         <v>0.585</v>
       </c>
@@ -1965,6 +2176,9 @@
       <c r="C58" t="s">
         <v>120</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E58">
         <v>0.658</v>
       </c>
@@ -1979,6 +2193,9 @@
       <c r="C59" t="s">
         <v>121</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E59">
         <v>0.974</v>
       </c>
@@ -1993,6 +2210,9 @@
       <c r="C60" t="s">
         <v>113</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L60">
         <v>0.988</v>
       </c>
@@ -2022,6 +2242,9 @@
       <c r="C61" t="s">
         <v>115</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L61">
         <v>0.821</v>
       </c>
@@ -2051,6 +2274,9 @@
       <c r="C62" t="s">
         <v>116</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L62">
         <v>0.846</v>
       </c>
@@ -2077,6 +2303,9 @@
       <c r="C63" t="s">
         <v>117</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L63">
         <v>0.831</v>
       </c>
@@ -2106,6 +2335,9 @@
       <c r="C64" t="s">
         <v>120</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L64">
         <v>0.99</v>
       </c>
@@ -2135,6 +2367,9 @@
       <c r="C65" t="s">
         <v>121</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L65">
         <v>0.847</v>
       </c>
@@ -2164,6 +2399,9 @@
       <c r="C66" t="s">
         <v>122</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L66">
         <v>0.991</v>
       </c>
@@ -2184,6 +2422,9 @@
       <c r="C67" t="s">
         <v>113</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L67">
         <v>0.989</v>
       </c>
@@ -2213,6 +2454,9 @@
       <c r="C68" t="s">
         <v>115</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G68">
         <v>0.775</v>
       </c>
@@ -2248,6 +2492,9 @@
       <c r="C69" t="s">
         <v>116</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L69">
         <v>0.8129999999999999</v>
       </c>
@@ -2274,6 +2521,9 @@
       <c r="C70" t="s">
         <v>117</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G70">
         <v>0.717</v>
       </c>
@@ -2318,6 +2568,9 @@
       <c r="C71" t="s">
         <v>118</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L71">
         <v>0.769</v>
       </c>
@@ -2332,6 +2585,9 @@
       <c r="C72" t="s">
         <v>119</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G72">
         <v>0.99</v>
       </c>
@@ -2361,6 +2617,9 @@
       <c r="C73" t="s">
         <v>120</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G73">
         <v>0.6860000000000001</v>
       </c>
@@ -2405,6 +2664,9 @@
       <c r="C74" t="s">
         <v>121</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G74">
         <v>0.743</v>
       </c>
@@ -2449,6 +2711,9 @@
       <c r="C75" t="s">
         <v>122</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L75">
         <v>0.985</v>
       </c>
@@ -2469,6 +2734,9 @@
       <c r="C76" t="s">
         <v>115</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E76">
         <v>0.983</v>
       </c>
@@ -2483,6 +2751,9 @@
       <c r="C77" t="s">
         <v>117</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E77">
         <v>0.894</v>
       </c>
@@ -2503,6 +2774,9 @@
       <c r="C78" t="s">
         <v>120</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E78">
         <v>0.65</v>
       </c>
@@ -2523,6 +2797,9 @@
       <c r="C79" t="s">
         <v>121</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E79">
         <v>0.8169999999999999</v>
       </c>
@@ -2543,6 +2820,9 @@
       <c r="C80" t="s">
         <v>113</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E80">
         <v>0.697</v>
       </c>
@@ -2560,6 +2840,9 @@
       <c r="C81" t="s">
         <v>114</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E81">
         <v>0.467</v>
       </c>
@@ -2574,6 +2857,9 @@
       <c r="C82" t="s">
         <v>115</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E82">
         <v>0.592</v>
       </c>
@@ -2597,6 +2883,9 @@
       <c r="C83" t="s">
         <v>116</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L83">
         <v>0.773</v>
       </c>
@@ -2611,6 +2900,9 @@
       <c r="C84" t="s">
         <v>117</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E84">
         <v>0.6899999999999999</v>
       </c>
@@ -2646,6 +2938,9 @@
       <c r="C85" t="s">
         <v>118</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L85">
         <v>0.759</v>
       </c>
@@ -2660,6 +2955,9 @@
       <c r="C86" t="s">
         <v>119</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E86">
         <v>0.59</v>
       </c>
@@ -2692,6 +2990,9 @@
       <c r="C87" t="s">
         <v>120</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E87">
         <v>0.949</v>
       </c>
@@ -2727,6 +3028,9 @@
       <c r="C88" t="s">
         <v>121</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E88">
         <v>0.582</v>
       </c>
@@ -2762,6 +3066,9 @@
       <c r="C89" t="s">
         <v>122</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L89">
         <v>1</v>
       </c>
@@ -2776,6 +3083,9 @@
       <c r="C90" t="s">
         <v>113</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L90">
         <v>0.8139999999999999</v>
       </c>
@@ -2790,6 +3100,9 @@
       <c r="C91" t="s">
         <v>115</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G91">
         <v>0.286</v>
       </c>
@@ -2807,6 +3120,9 @@
       <c r="C92" t="s">
         <v>116</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L92">
         <v>0.949</v>
       </c>
@@ -2821,6 +3137,9 @@
       <c r="C93" t="s">
         <v>117</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G93">
         <v>0.403</v>
       </c>
@@ -2850,6 +3169,9 @@
       <c r="C94" t="s">
         <v>118</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L94">
         <v>0.9360000000000001</v>
       </c>
@@ -2864,6 +3186,9 @@
       <c r="C95" t="s">
         <v>119</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G95">
         <v>0.857</v>
       </c>
@@ -2893,6 +3218,9 @@
       <c r="C96" t="s">
         <v>120</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G96">
         <v>0.371</v>
       </c>
@@ -2922,6 +3250,9 @@
       <c r="C97" t="s">
         <v>121</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G97">
         <v>0.5</v>
       </c>
@@ -2951,6 +3282,9 @@
       <c r="C98" t="s">
         <v>113</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E98">
         <v>0.73</v>
       </c>
@@ -2965,6 +3299,9 @@
       <c r="C99" t="s">
         <v>114</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E99">
         <v>0.488</v>
       </c>
@@ -2979,6 +3316,9 @@
       <c r="C100" t="s">
         <v>115</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E100">
         <v>0.603</v>
       </c>
@@ -2993,6 +3333,9 @@
       <c r="C101" t="s">
         <v>117</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E101">
         <v>0.668</v>
       </c>
@@ -3007,6 +3350,9 @@
       <c r="C102" t="s">
         <v>119</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E102">
         <v>0.5610000000000001</v>
       </c>
@@ -3021,6 +3367,9 @@
       <c r="C103" t="s">
         <v>120</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E103">
         <v>0.908</v>
       </c>
@@ -3035,6 +3384,9 @@
       <c r="C104" t="s">
         <v>121</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E104">
         <v>0.649</v>
       </c>
@@ -3049,6 +3401,9 @@
       <c r="C105" t="s">
         <v>113</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L105">
         <v>0.8159999999999999</v>
       </c>
@@ -3078,6 +3433,9 @@
       <c r="C106" t="s">
         <v>115</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G106">
         <v>0.977</v>
       </c>
@@ -3113,6 +3471,9 @@
       <c r="C107" t="s">
         <v>116</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L107">
         <v>0.999</v>
       </c>
@@ -3139,6 +3500,9 @@
       <c r="C108" t="s">
         <v>117</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G108">
         <v>0.911</v>
       </c>
@@ -3183,6 +3547,9 @@
       <c r="C109" t="s">
         <v>118</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L109">
         <v>0.966</v>
       </c>
@@ -3197,6 +3564,9 @@
       <c r="C110" t="s">
         <v>119</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G110">
         <v>0.73</v>
       </c>
@@ -3226,6 +3596,9 @@
       <c r="C111" t="s">
         <v>120</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G111">
         <v>0.6899999999999999</v>
       </c>
@@ -3270,6 +3643,9 @@
       <c r="C112" t="s">
         <v>121</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G112">
         <v>0.967</v>
       </c>
@@ -3314,6 +3690,9 @@
       <c r="C113" t="s">
         <v>122</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L113">
         <v>0.828</v>
       </c>
@@ -3334,6 +3713,9 @@
       <c r="C114" t="s">
         <v>113</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E114">
         <v>0.588</v>
       </c>
@@ -3348,6 +3730,9 @@
       <c r="C115" t="s">
         <v>114</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E115">
         <v>0.637</v>
       </c>
@@ -3362,6 +3747,9 @@
       <c r="C116" t="s">
         <v>115</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E116">
         <v>0.704</v>
       </c>
@@ -3376,6 +3764,9 @@
       <c r="C117" t="s">
         <v>117</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E117">
         <v>0.622</v>
       </c>
@@ -3390,6 +3781,9 @@
       <c r="C118" t="s">
         <v>119</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E118">
         <v>0.8169999999999999</v>
       </c>
@@ -3404,6 +3798,9 @@
       <c r="C119" t="s">
         <v>120</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E119">
         <v>0.5620000000000001</v>
       </c>
@@ -3418,6 +3815,9 @@
       <c r="C120" t="s">
         <v>121</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E120">
         <v>0.645</v>
       </c>
@@ -3432,6 +3832,9 @@
       <c r="C121" t="s">
         <v>113</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E121">
         <v>0.925</v>
       </c>
@@ -3464,6 +3867,9 @@
       <c r="C122" t="s">
         <v>114</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E122">
         <v>0.6830000000000001</v>
       </c>
@@ -3478,6 +3884,9 @@
       <c r="C123" t="s">
         <v>115</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E123">
         <v>0.714</v>
       </c>
@@ -3513,6 +3922,9 @@
       <c r="C124" t="s">
         <v>116</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L124">
         <v>0.994</v>
       </c>
@@ -3539,6 +3951,9 @@
       <c r="C125" t="s">
         <v>117</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E125">
         <v>0.838</v>
       </c>
@@ -3586,6 +4001,9 @@
       <c r="C126" t="s">
         <v>119</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E126">
         <v>0.507</v>
       </c>
@@ -3612,6 +4030,9 @@
       <c r="C127" t="s">
         <v>120</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E127">
         <v>0.734</v>
       </c>
@@ -3659,6 +4080,9 @@
       <c r="C128" t="s">
         <v>121</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E128">
         <v>0.619</v>
       </c>
@@ -3706,6 +4130,9 @@
       <c r="C129" t="s">
         <v>122</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L129">
         <v>0.869</v>
       </c>
@@ -3726,6 +4153,9 @@
       <c r="C130" t="s">
         <v>113</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L130">
         <v>0.804</v>
       </c>
@@ -3755,6 +4185,9 @@
       <c r="C131" t="s">
         <v>115</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E131">
         <v>0.982</v>
       </c>
@@ -3796,6 +4229,9 @@
       <c r="C132" t="s">
         <v>116</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L132">
         <v>0.963</v>
       </c>
@@ -3822,6 +4258,9 @@
       <c r="C133" t="s">
         <v>117</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E133">
         <v>0.794</v>
       </c>
@@ -3872,6 +4311,9 @@
       <c r="C134" t="s">
         <v>118</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L134">
         <v>0.944</v>
       </c>
@@ -3886,6 +4328,9 @@
       <c r="C135" t="s">
         <v>119</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G135">
         <v>0.737</v>
       </c>
@@ -3915,6 +4360,9 @@
       <c r="C136" t="s">
         <v>120</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E136">
         <v>0.632</v>
       </c>
@@ -3965,6 +4413,9 @@
       <c r="C137" t="s">
         <v>121</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E137">
         <v>0.956</v>
       </c>
@@ -4015,6 +4466,9 @@
       <c r="C138" t="s">
         <v>122</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L138">
         <v>0.825</v>
       </c>
@@ -4035,6 +4489,9 @@
       <c r="C139" t="s">
         <v>115</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G139">
         <v>0.984</v>
       </c>
@@ -4049,6 +4506,9 @@
       <c r="C140" t="s">
         <v>117</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G140">
         <v>0.92</v>
       </c>
@@ -4063,6 +4523,9 @@
       <c r="C141" t="s">
         <v>120</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G141">
         <v>0.743</v>
       </c>
@@ -4077,6 +4540,9 @@
       <c r="C142" t="s">
         <v>121</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G142">
         <v>0.948</v>
       </c>
@@ -4091,6 +4557,9 @@
       <c r="C143" t="s">
         <v>113</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L143">
         <v>0.984</v>
       </c>
@@ -4120,6 +4589,9 @@
       <c r="C144" t="s">
         <v>115</v>
       </c>
+      <c r="D144" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G144">
         <v>0.49</v>
       </c>
@@ -4152,6 +4624,9 @@
       <c r="C145" t="s">
         <v>116</v>
       </c>
+      <c r="D145" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L145">
         <v>0.8</v>
       </c>
@@ -4178,6 +4653,9 @@
       <c r="C146" t="s">
         <v>117</v>
       </c>
+      <c r="D146" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G146">
         <v>0.637</v>
       </c>
@@ -4222,6 +4700,9 @@
       <c r="C147" t="s">
         <v>119</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G147">
         <v>0.515</v>
       </c>
@@ -4251,6 +4732,9 @@
       <c r="C148" t="s">
         <v>120</v>
       </c>
+      <c r="D148" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G148">
         <v>0.991</v>
       </c>
@@ -4295,6 +4779,9 @@
       <c r="C149" t="s">
         <v>121</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G149">
         <v>0.52</v>
       </c>
@@ -4339,6 +4826,9 @@
       <c r="C150" t="s">
         <v>122</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="M150">
         <v>0.982</v>
       </c>
@@ -4356,6 +4846,9 @@
       <c r="C151" t="s">
         <v>115</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E151">
         <v>0.987</v>
       </c>
@@ -4373,6 +4866,9 @@
       <c r="C152" t="s">
         <v>117</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E152">
         <v>0.731</v>
       </c>
@@ -4390,6 +4886,9 @@
       <c r="C153" t="s">
         <v>120</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E153">
         <v>0.966</v>
       </c>
@@ -4407,6 +4906,9 @@
       <c r="C154" t="s">
         <v>121</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E154">
         <v>0.615</v>
       </c>
@@ -4424,6 +4926,9 @@
       <c r="C155" t="s">
         <v>113</v>
       </c>
+      <c r="D155" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E155">
         <v>0.872</v>
       </c>
@@ -4456,6 +4961,9 @@
       <c r="C156" t="s">
         <v>114</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E156">
         <v>0.792</v>
       </c>
@@ -4470,6 +4978,9 @@
       <c r="C157" t="s">
         <v>115</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E157">
         <v>0.879</v>
       </c>
@@ -4511,6 +5022,9 @@
       <c r="C158" t="s">
         <v>116</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L158">
         <v>0.8080000000000001</v>
       </c>
@@ -4537,6 +5051,9 @@
       <c r="C159" t="s">
         <v>117</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E159">
         <v>0.712</v>
       </c>
@@ -4587,6 +5104,9 @@
       <c r="C160" t="s">
         <v>118</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L160">
         <v>0.735</v>
       </c>
@@ -4601,6 +5121,9 @@
       <c r="C161" t="s">
         <v>119</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E161">
         <v>0.494</v>
       </c>
@@ -4633,6 +5156,9 @@
       <c r="C162" t="s">
         <v>120</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E162">
         <v>0.96</v>
       </c>
@@ -4683,6 +5209,9 @@
       <c r="C163" t="s">
         <v>121</v>
       </c>
+      <c r="D163" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E163">
         <v>0.631</v>
       </c>
@@ -4733,6 +5262,9 @@
       <c r="C164" t="s">
         <v>122</v>
       </c>
+      <c r="D164" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L164">
         <v>0.972</v>
       </c>
@@ -4753,6 +5285,9 @@
       <c r="C165" t="s">
         <v>113</v>
       </c>
+      <c r="D165" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L165">
         <v>0.988</v>
       </c>
@@ -4782,6 +5317,9 @@
       <c r="C166" t="s">
         <v>115</v>
       </c>
+      <c r="D166" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L166">
         <v>0.8139999999999999</v>
       </c>
@@ -4811,6 +5349,9 @@
       <c r="C167" t="s">
         <v>116</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L167">
         <v>0.83</v>
       </c>
@@ -4837,6 +5378,9 @@
       <c r="C168" t="s">
         <v>117</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L168">
         <v>0.8149999999999999</v>
       </c>
@@ -4866,6 +5410,9 @@
       <c r="C169" t="s">
         <v>120</v>
       </c>
+      <c r="D169" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L169">
         <v>0.987</v>
       </c>
@@ -4895,6 +5442,9 @@
       <c r="C170" t="s">
         <v>121</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L170">
         <v>0.831</v>
       </c>
@@ -4924,6 +5474,9 @@
       <c r="C171" t="s">
         <v>122</v>
       </c>
+      <c r="D171" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L171">
         <v>0.997</v>
       </c>
@@ -4944,6 +5497,9 @@
       <c r="C172" t="s">
         <v>113</v>
       </c>
+      <c r="D172" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L172">
         <v>0.887</v>
       </c>
@@ -4958,6 +5514,9 @@
       <c r="C173" t="s">
         <v>116</v>
       </c>
+      <c r="D173" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L173">
         <v>0.881</v>
       </c>
@@ -4972,6 +5531,9 @@
       <c r="C174" t="s">
         <v>117</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="K174">
         <v>0.824</v>
       </c>
@@ -4989,6 +5551,9 @@
       <c r="C175" t="s">
         <v>118</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L175">
         <v>0.848</v>
       </c>
@@ -5003,6 +5568,9 @@
       <c r="C176" t="s">
         <v>119</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="K176">
         <v>0.9379999999999999</v>
       </c>
@@ -5020,6 +5588,9 @@
       <c r="C177" t="s">
         <v>120</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="K177">
         <v>0.926</v>
       </c>
@@ -5037,6 +5608,9 @@
       <c r="C178" t="s">
         <v>121</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="K178">
         <v>0.833</v>
       </c>
@@ -5054,6 +5628,9 @@
       <c r="C179" t="s">
         <v>113</v>
       </c>
+      <c r="D179" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E179">
         <v>0.774</v>
       </c>
@@ -5068,6 +5645,9 @@
       <c r="C180" t="s">
         <v>114</v>
       </c>
+      <c r="D180" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E180">
         <v>0.516</v>
       </c>
@@ -5082,6 +5662,9 @@
       <c r="C181" t="s">
         <v>115</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E181">
         <v>0.603</v>
       </c>
@@ -5096,6 +5679,9 @@
       <c r="C182" t="s">
         <v>117</v>
       </c>
+      <c r="D182" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E182">
         <v>0.679</v>
       </c>
@@ -5110,6 +5696,9 @@
       <c r="C183" t="s">
         <v>119</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E183">
         <v>0.601</v>
       </c>
@@ -5124,6 +5713,9 @@
       <c r="C184" t="s">
         <v>120</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E184">
         <v>0.962</v>
       </c>
@@ -5138,6 +5730,9 @@
       <c r="C185" t="s">
         <v>121</v>
       </c>
+      <c r="D185" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E185">
         <v>0.628</v>
       </c>
@@ -5152,6 +5747,9 @@
       <c r="C186" t="s">
         <v>113</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L186">
         <v>0.996</v>
       </c>
@@ -5181,6 +5779,9 @@
       <c r="C187" t="s">
         <v>115</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L187">
         <v>0.879</v>
       </c>
@@ -5210,6 +5811,9 @@
       <c r="C188" t="s">
         <v>116</v>
       </c>
+      <c r="D188" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L188">
         <v>0.904</v>
       </c>
@@ -5236,6 +5840,9 @@
       <c r="C189" t="s">
         <v>117</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L189">
         <v>0.894</v>
       </c>
@@ -5265,6 +5872,9 @@
       <c r="C190" t="s">
         <v>120</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L190">
         <v>0.993</v>
       </c>
@@ -5294,6 +5904,9 @@
       <c r="C191" t="s">
         <v>121</v>
       </c>
+      <c r="D191" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L191">
         <v>0.905</v>
       </c>
@@ -5323,6 +5936,9 @@
       <c r="C192" t="s">
         <v>122</v>
       </c>
+      <c r="D192" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L192">
         <v>0.996</v>
       </c>
@@ -5343,6 +5959,9 @@
       <c r="C193" t="s">
         <v>113</v>
       </c>
+      <c r="D193" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L193">
         <v>0.825</v>
       </c>
@@ -5372,6 +5991,9 @@
       <c r="C194" t="s">
         <v>115</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L194">
         <v>0.842</v>
       </c>
@@ -5401,6 +6023,9 @@
       <c r="C195" t="s">
         <v>116</v>
       </c>
+      <c r="D195" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L195">
         <v>0.989</v>
       </c>
@@ -5427,6 +6052,9 @@
       <c r="C196" t="s">
         <v>117</v>
       </c>
+      <c r="D196" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L196">
         <v>0.964</v>
       </c>
@@ -5456,6 +6084,9 @@
       <c r="C197" t="s">
         <v>120</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L197">
         <v>0.847</v>
       </c>
@@ -5485,6 +6116,9 @@
       <c r="C198" t="s">
         <v>121</v>
       </c>
+      <c r="D198" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L198">
         <v>0.983</v>
       </c>
@@ -5514,6 +6148,9 @@
       <c r="C199" t="s">
         <v>122</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L199">
         <v>0.824</v>
       </c>
@@ -5534,6 +6171,9 @@
       <c r="C200" t="s">
         <v>115</v>
       </c>
+      <c r="D200" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E200">
         <v>1</v>
       </c>
@@ -5554,6 +6194,9 @@
       <c r="C201" t="s">
         <v>117</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E201">
         <v>0.847</v>
       </c>
@@ -5574,6 +6217,9 @@
       <c r="C202" t="s">
         <v>120</v>
       </c>
+      <c r="D202" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E202">
         <v>0.827</v>
       </c>
@@ -5594,6 +6240,9 @@
       <c r="C203" t="s">
         <v>121</v>
       </c>
+      <c r="D203" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E203">
         <v>0.662</v>
       </c>
@@ -5614,6 +6263,9 @@
       <c r="C204" t="s">
         <v>117</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G204">
         <v>0.9370000000000001</v>
       </c>
@@ -5628,6 +6280,9 @@
       <c r="C205" t="s">
         <v>120</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G205">
         <v>0.824</v>
       </c>
@@ -5642,6 +6297,9 @@
       <c r="C206" t="s">
         <v>121</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G206">
         <v>0.952</v>
       </c>
@@ -5656,6 +6314,9 @@
       <c r="C207" t="s">
         <v>113</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E207">
         <v>0.553</v>
       </c>
@@ -5670,6 +6331,9 @@
       <c r="C208" t="s">
         <v>114</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E208">
         <v>0.596</v>
       </c>
@@ -5684,6 +6348,9 @@
       <c r="C209" t="s">
         <v>115</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E209">
         <v>0.694</v>
       </c>
@@ -5698,6 +6365,9 @@
       <c r="C210" t="s">
         <v>117</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E210">
         <v>0.581</v>
       </c>
@@ -5712,6 +6382,9 @@
       <c r="C211" t="s">
         <v>119</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E211">
         <v>0.835</v>
       </c>
@@ -5726,6 +6399,9 @@
       <c r="C212" t="s">
         <v>120</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E212">
         <v>0.574</v>
       </c>
@@ -5740,6 +6416,9 @@
       <c r="C213" t="s">
         <v>121</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E213">
         <v>0.658</v>
       </c>
@@ -5754,6 +6433,9 @@
       <c r="C214" t="s">
         <v>113</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L214">
         <v>0.997</v>
       </c>
@@ -5783,6 +6465,9 @@
       <c r="C215" t="s">
         <v>115</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L215">
         <v>0.79</v>
       </c>
@@ -5812,6 +6497,9 @@
       <c r="C216" t="s">
         <v>116</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L216">
         <v>0.824</v>
       </c>
@@ -5838,6 +6526,9 @@
       <c r="C217" t="s">
         <v>117</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L217">
         <v>0.8090000000000001</v>
       </c>
@@ -5867,6 +6558,9 @@
       <c r="C218" t="s">
         <v>120</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L218">
         <v>0.991</v>
       </c>
@@ -5896,6 +6590,9 @@
       <c r="C219" t="s">
         <v>121</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L219">
         <v>0.8179999999999999</v>
       </c>
@@ -5925,6 +6622,9 @@
       <c r="C220" t="s">
         <v>122</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L220">
         <v>0.997</v>
       </c>
@@ -5945,6 +6645,9 @@
       <c r="C221" t="s">
         <v>115</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E221">
         <v>1</v>
       </c>
@@ -5962,6 +6665,9 @@
       <c r="C222" t="s">
         <v>117</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E222">
         <v>0.925</v>
       </c>
@@ -5982,6 +6688,9 @@
       <c r="C223" t="s">
         <v>119</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G223">
         <v>0.731</v>
       </c>
@@ -5996,6 +6705,9 @@
       <c r="C224" t="s">
         <v>120</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E224">
         <v>0.6830000000000001</v>
       </c>
@@ -6016,6 +6728,9 @@
       <c r="C225" t="s">
         <v>121</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E225">
         <v>0.859</v>
       </c>
@@ -6036,6 +6751,9 @@
       <c r="C226" t="s">
         <v>113</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E226">
         <v>0.542</v>
       </c>
@@ -6050,6 +6768,9 @@
       <c r="C227" t="s">
         <v>114</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E227">
         <v>0.578</v>
       </c>
@@ -6064,6 +6785,9 @@
       <c r="C228" t="s">
         <v>115</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E228">
         <v>1</v>
       </c>
@@ -6078,6 +6802,9 @@
       <c r="C229" t="s">
         <v>117</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E229">
         <v>0.5570000000000001</v>
       </c>
@@ -6092,6 +6819,9 @@
       <c r="C230" t="s">
         <v>119</v>
       </c>
+      <c r="D230" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E230">
         <v>0.721</v>
       </c>
@@ -6106,6 +6836,9 @@
       <c r="C231" t="s">
         <v>120</v>
       </c>
+      <c r="D231" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E231">
         <v>0.595</v>
       </c>
@@ -6120,6 +6853,9 @@
       <c r="C232" t="s">
         <v>121</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E232">
         <v>0.525</v>
       </c>
@@ -6134,6 +6870,9 @@
       <c r="C233" t="s">
         <v>115</v>
       </c>
+      <c r="D233" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E233">
         <v>1</v>
       </c>
@@ -6148,6 +6887,9 @@
       <c r="C234" t="s">
         <v>117</v>
       </c>
+      <c r="D234" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E234">
         <v>0.898</v>
       </c>
@@ -6165,6 +6907,9 @@
       <c r="C235" t="s">
         <v>120</v>
       </c>
+      <c r="D235" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E235">
         <v>0.714</v>
       </c>
@@ -6182,6 +6927,9 @@
       <c r="C236" t="s">
         <v>121</v>
       </c>
+      <c r="D236" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E236">
         <v>0.837</v>
       </c>
@@ -6199,6 +6947,9 @@
       <c r="C237" t="s">
         <v>113</v>
       </c>
+      <c r="D237" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E237">
         <v>0.991</v>
       </c>
@@ -6219,6 +6970,9 @@
       <c r="C238" t="s">
         <v>114</v>
       </c>
+      <c r="D238" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E238">
         <v>0.655</v>
       </c>
@@ -6233,6 +6987,9 @@
       <c r="C239" t="s">
         <v>115</v>
       </c>
+      <c r="D239" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E239">
         <v>0.55</v>
       </c>
@@ -6256,6 +7013,9 @@
       <c r="C240" t="s">
         <v>116</v>
       </c>
+      <c r="D240" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L240">
         <v>0.881</v>
       </c>
@@ -6273,6 +7033,9 @@
       <c r="C241" t="s">
         <v>117</v>
       </c>
+      <c r="D241" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E241">
         <v>0.849</v>
       </c>
@@ -6296,6 +7059,9 @@
       <c r="C242" t="s">
         <v>118</v>
       </c>
+      <c r="D242" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L242">
         <v>0.834</v>
       </c>
@@ -6310,6 +7076,9 @@
       <c r="C243" t="s">
         <v>119</v>
       </c>
+      <c r="D243" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E243">
         <v>0.577</v>
       </c>
@@ -6330,6 +7099,9 @@
       <c r="C244" t="s">
         <v>120</v>
       </c>
+      <c r="D244" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E244">
         <v>0.763</v>
       </c>
@@ -6353,6 +7125,9 @@
       <c r="C245" t="s">
         <v>121</v>
       </c>
+      <c r="D245" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E245">
         <v>0.715</v>
       </c>
@@ -6376,6 +7151,9 @@
       <c r="C246" t="s">
         <v>122</v>
       </c>
+      <c r="D246" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L246">
         <v>0.793</v>
       </c>
@@ -6393,6 +7171,9 @@
       <c r="C247" t="s">
         <v>113</v>
       </c>
+      <c r="D247" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L247">
         <v>0.803</v>
       </c>
@@ -6407,6 +7188,9 @@
       <c r="C248" t="s">
         <v>115</v>
       </c>
+      <c r="D248" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G248">
         <v>0.958</v>
       </c>
@@ -6424,6 +7208,9 @@
       <c r="C249" t="s">
         <v>116</v>
       </c>
+      <c r="D249" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L249">
         <v>0.971</v>
       </c>
@@ -6438,6 +7225,9 @@
       <c r="C250" t="s">
         <v>117</v>
       </c>
+      <c r="D250" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G250">
         <v>0.87</v>
       </c>
@@ -6467,6 +7257,9 @@
       <c r="C251" t="s">
         <v>118</v>
       </c>
+      <c r="D251" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L251">
         <v>0.981</v>
       </c>
@@ -6481,6 +7274,9 @@
       <c r="C252" t="s">
         <v>119</v>
       </c>
+      <c r="D252" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G252">
         <v>0.781</v>
       </c>
@@ -6510,6 +7306,9 @@
       <c r="C253" t="s">
         <v>120</v>
       </c>
+      <c r="D253" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G253">
         <v>0.609</v>
       </c>
@@ -6539,6 +7338,9 @@
       <c r="C254" t="s">
         <v>121</v>
       </c>
+      <c r="D254" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G254">
         <v>0.978</v>
       </c>
@@ -6568,6 +7370,9 @@
       <c r="C255" t="s">
         <v>113</v>
       </c>
+      <c r="D255" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L255">
         <v>0.803</v>
       </c>
@@ -6582,6 +7387,9 @@
       <c r="C256" t="s">
         <v>115</v>
       </c>
+      <c r="D256" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G256">
         <v>0.976</v>
       </c>
@@ -6599,6 +7407,9 @@
       <c r="C257" t="s">
         <v>116</v>
       </c>
+      <c r="D257" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L257">
         <v>0.975</v>
       </c>
@@ -6613,6 +7424,9 @@
       <c r="C258" t="s">
         <v>117</v>
       </c>
+      <c r="D258" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G258">
         <v>0.909</v>
       </c>
@@ -6642,6 +7456,9 @@
       <c r="C259" t="s">
         <v>118</v>
       </c>
+      <c r="D259" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L259">
         <v>0.965</v>
       </c>
@@ -6656,6 +7473,9 @@
       <c r="C260" t="s">
         <v>119</v>
       </c>
+      <c r="D260" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G260">
         <v>0.726</v>
       </c>
@@ -6685,6 +7505,9 @@
       <c r="C261" t="s">
         <v>120</v>
       </c>
+      <c r="D261" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G261">
         <v>0.669</v>
       </c>
@@ -6714,6 +7537,9 @@
       <c r="C262" t="s">
         <v>121</v>
       </c>
+      <c r="D262" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G262">
         <v>0.978</v>
       </c>
@@ -6743,6 +7569,9 @@
       <c r="C263" t="s">
         <v>113</v>
       </c>
+      <c r="D263" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L263">
         <v>0.992</v>
       </c>
@@ -6772,6 +7601,9 @@
       <c r="C264" t="s">
         <v>115</v>
       </c>
+      <c r="D264" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L264">
         <v>0.78</v>
       </c>
@@ -6801,6 +7633,9 @@
       <c r="C265" t="s">
         <v>116</v>
       </c>
+      <c r="D265" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L265">
         <v>0.798</v>
       </c>
@@ -6827,6 +7662,9 @@
       <c r="C266" t="s">
         <v>117</v>
       </c>
+      <c r="D266" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L266">
         <v>0.773</v>
       </c>
@@ -6856,6 +7694,9 @@
       <c r="C267" t="s">
         <v>120</v>
       </c>
+      <c r="D267" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L267">
         <v>0.992</v>
       </c>
@@ -6885,6 +7726,9 @@
       <c r="C268" t="s">
         <v>121</v>
       </c>
+      <c r="D268" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L268">
         <v>0.802</v>
       </c>
@@ -6914,6 +7758,9 @@
       <c r="C269" t="s">
         <v>122</v>
       </c>
+      <c r="D269" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L269">
         <v>0.996</v>
       </c>
@@ -6934,6 +7781,9 @@
       <c r="C270" t="s">
         <v>113</v>
       </c>
+      <c r="D270" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E270">
         <v>0.598</v>
       </c>
@@ -6948,6 +7798,9 @@
       <c r="C271" t="s">
         <v>114</v>
       </c>
+      <c r="D271" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E271">
         <v>0.571</v>
       </c>
@@ -6962,6 +7815,9 @@
       <c r="C272" t="s">
         <v>115</v>
       </c>
+      <c r="D272" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E272">
         <v>0.6899999999999999</v>
       </c>
@@ -6976,6 +7832,9 @@
       <c r="C273" t="s">
         <v>117</v>
       </c>
+      <c r="D273" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E273">
         <v>0.577</v>
       </c>
@@ -6990,6 +7849,9 @@
       <c r="C274" t="s">
         <v>119</v>
       </c>
+      <c r="D274" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E274">
         <v>0.745</v>
       </c>
@@ -7004,6 +7866,9 @@
       <c r="C275" t="s">
         <v>120</v>
       </c>
+      <c r="D275" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E275">
         <v>0.655</v>
       </c>
@@ -7018,6 +7883,9 @@
       <c r="C276" t="s">
         <v>121</v>
       </c>
+      <c r="D276" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E276">
         <v>0.521</v>
       </c>
@@ -7032,6 +7900,9 @@
       <c r="C277" t="s">
         <v>115</v>
       </c>
+      <c r="D277" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F277">
         <v>1</v>
       </c>
@@ -7049,6 +7920,9 @@
       <c r="C278" t="s">
         <v>117</v>
       </c>
+      <c r="D278" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F278">
         <v>0.921</v>
       </c>
@@ -7066,6 +7940,9 @@
       <c r="C279" t="s">
         <v>120</v>
       </c>
+      <c r="D279" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F279">
         <v>0.8090000000000001</v>
       </c>
@@ -7083,6 +7960,9 @@
       <c r="C280" t="s">
         <v>121</v>
       </c>
+      <c r="D280" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F280">
         <v>0.922</v>
       </c>
@@ -7100,6 +7980,9 @@
       <c r="C281" t="s">
         <v>113</v>
       </c>
+      <c r="D281" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E281">
         <v>0.842</v>
       </c>
@@ -7114,6 +7997,9 @@
       <c r="C282" t="s">
         <v>114</v>
       </c>
+      <c r="D282" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E282">
         <v>0.339</v>
       </c>
@@ -7128,6 +8014,9 @@
       <c r="C283" t="s">
         <v>115</v>
       </c>
+      <c r="D283" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E283">
         <v>0.78</v>
       </c>
@@ -7148,6 +8037,9 @@
       <c r="C284" t="s">
         <v>117</v>
       </c>
+      <c r="D284" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E284">
         <v>0.731</v>
       </c>
@@ -7168,6 +8060,9 @@
       <c r="C285" t="s">
         <v>119</v>
       </c>
+      <c r="D285" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E285">
         <v>0.628</v>
       </c>
@@ -7182,6 +8077,9 @@
       <c r="C286" t="s">
         <v>120</v>
       </c>
+      <c r="D286" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E286">
         <v>0.968</v>
       </c>
@@ -7202,6 +8100,9 @@
       <c r="C287" t="s">
         <v>121</v>
       </c>
+      <c r="D287" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E287">
         <v>0.6860000000000001</v>
       </c>
@@ -7222,6 +8123,9 @@
       <c r="C288" t="s">
         <v>117</v>
       </c>
+      <c r="D288" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H288">
         <v>0.614</v>
       </c>
@@ -7239,6 +8143,9 @@
       <c r="C289" t="s">
         <v>119</v>
       </c>
+      <c r="D289" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="H289">
         <v>0.895</v>
       </c>
@@ -7256,6 +8163,9 @@
       <c r="C290" t="s">
         <v>120</v>
       </c>
+      <c r="D290" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H290">
         <v>0.763</v>
       </c>
@@ -7273,6 +8183,9 @@
       <c r="C291" t="s">
         <v>121</v>
       </c>
+      <c r="D291" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H291">
         <v>0.649</v>
       </c>
@@ -7290,6 +8203,9 @@
       <c r="C292" t="s">
         <v>113</v>
       </c>
+      <c r="D292" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L292">
         <v>1</v>
       </c>
@@ -7304,6 +8220,9 @@
       <c r="C293" t="s">
         <v>115</v>
       </c>
+      <c r="D293" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G293">
         <v>0.6870000000000001</v>
       </c>
@@ -7321,6 +8240,9 @@
       <c r="C294" t="s">
         <v>116</v>
       </c>
+      <c r="D294" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L294">
         <v>0.8100000000000001</v>
       </c>
@@ -7335,6 +8257,9 @@
       <c r="C295" t="s">
         <v>117</v>
       </c>
+      <c r="D295" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G295">
         <v>0.713</v>
       </c>
@@ -7364,6 +8289,9 @@
       <c r="C296" t="s">
         <v>118</v>
       </c>
+      <c r="D296" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L296">
         <v>0.78</v>
       </c>
@@ -7378,6 +8306,9 @@
       <c r="C297" t="s">
         <v>119</v>
       </c>
+      <c r="D297" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G297">
         <v>0.667</v>
       </c>
@@ -7407,6 +8338,9 @@
       <c r="C298" t="s">
         <v>120</v>
       </c>
+      <c r="D298" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G298">
         <v>0.977</v>
       </c>
@@ -7436,6 +8370,9 @@
       <c r="C299" t="s">
         <v>121</v>
       </c>
+      <c r="D299" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G299">
         <v>0.65</v>
       </c>
@@ -7465,6 +8402,9 @@
       <c r="C300" t="s">
         <v>113</v>
       </c>
+      <c r="D300" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E300">
         <v>0.967</v>
       </c>
@@ -7479,6 +8419,9 @@
       <c r="C301" t="s">
         <v>114</v>
       </c>
+      <c r="D301" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E301">
         <v>0.661</v>
       </c>
@@ -7493,6 +8436,9 @@
       <c r="C302" t="s">
         <v>115</v>
       </c>
+      <c r="D302" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E302">
         <v>0.5659999999999999</v>
       </c>
@@ -7507,6 +8453,9 @@
       <c r="C303" t="s">
         <v>117</v>
       </c>
+      <c r="D303" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E303">
         <v>0.858</v>
       </c>
@@ -7521,6 +8470,9 @@
       <c r="C304" t="s">
         <v>119</v>
       </c>
+      <c r="D304" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E304">
         <v>0.586</v>
       </c>
@@ -7535,6 +8487,9 @@
       <c r="C305" t="s">
         <v>120</v>
       </c>
+      <c r="D305" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E305">
         <v>0.756</v>
       </c>
@@ -7549,6 +8504,9 @@
       <c r="C306" t="s">
         <v>121</v>
       </c>
+      <c r="D306" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E306">
         <v>0.6889999999999999</v>
       </c>
@@ -7563,6 +8521,9 @@
       <c r="C307" t="s">
         <v>113</v>
       </c>
+      <c r="D307" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E307">
         <v>0.973</v>
       </c>
@@ -7577,6 +8538,9 @@
       <c r="C308" t="s">
         <v>114</v>
       </c>
+      <c r="D308" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E308">
         <v>0.671</v>
       </c>
@@ -7591,6 +8555,9 @@
       <c r="C309" t="s">
         <v>115</v>
       </c>
+      <c r="D309" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E309">
         <v>0.5610000000000001</v>
       </c>
@@ -7605,6 +8572,9 @@
       <c r="C310" t="s">
         <v>117</v>
       </c>
+      <c r="D310" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E310">
         <v>0.861</v>
       </c>
@@ -7619,6 +8589,9 @@
       <c r="C311" t="s">
         <v>119</v>
       </c>
+      <c r="D311" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E311">
         <v>0.581</v>
       </c>
@@ -7633,6 +8606,9 @@
       <c r="C312" t="s">
         <v>120</v>
       </c>
+      <c r="D312" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E312">
         <v>0.766</v>
       </c>
@@ -7647,6 +8623,9 @@
       <c r="C313" t="s">
         <v>121</v>
       </c>
+      <c r="D313" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E313">
         <v>0.706</v>
       </c>
@@ -7661,6 +8640,9 @@
       <c r="C314" t="s">
         <v>113</v>
       </c>
+      <c r="D314" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L314">
         <v>0.973</v>
       </c>
@@ -7675,6 +8657,9 @@
       <c r="C315" t="s">
         <v>115</v>
       </c>
+      <c r="D315" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G315">
         <v>0.6840000000000001</v>
       </c>
@@ -7692,6 +8677,9 @@
       <c r="C316" t="s">
         <v>116</v>
       </c>
+      <c r="D316" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L316">
         <v>0.796</v>
       </c>
@@ -7706,6 +8694,9 @@
       <c r="C317" t="s">
         <v>117</v>
       </c>
+      <c r="D317" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G317">
         <v>0.712</v>
       </c>
@@ -7735,6 +8726,9 @@
       <c r="C318" t="s">
         <v>118</v>
       </c>
+      <c r="D318" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L318">
         <v>0.782</v>
       </c>
@@ -7749,6 +8743,9 @@
       <c r="C319" t="s">
         <v>119</v>
       </c>
+      <c r="D319" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G319">
         <v>0.681</v>
       </c>
@@ -7778,6 +8775,9 @@
       <c r="C320" t="s">
         <v>120</v>
       </c>
+      <c r="D320" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G320">
         <v>0.977</v>
       </c>
@@ -7807,6 +8807,9 @@
       <c r="C321" t="s">
         <v>121</v>
       </c>
+      <c r="D321" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G321">
         <v>0.649</v>
       </c>
@@ -7836,6 +8839,9 @@
       <c r="C322" t="s">
         <v>115</v>
       </c>
+      <c r="D322" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G322">
         <v>1</v>
       </c>
@@ -7850,6 +8856,9 @@
       <c r="C323" t="s">
         <v>117</v>
       </c>
+      <c r="D323" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G323">
         <v>0.921</v>
       </c>
@@ -7864,6 +8873,9 @@
       <c r="C324" t="s">
         <v>120</v>
       </c>
+      <c r="D324" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G324">
         <v>0.749</v>
       </c>
@@ -7878,6 +8890,9 @@
       <c r="C325" t="s">
         <v>121</v>
       </c>
+      <c r="D325" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G325">
         <v>0.955</v>
       </c>
@@ -7892,6 +8907,9 @@
       <c r="C326" t="s">
         <v>113</v>
       </c>
+      <c r="D326" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E326">
         <v>0.749</v>
       </c>
@@ -7924,6 +8942,9 @@
       <c r="C327" t="s">
         <v>114</v>
       </c>
+      <c r="D327" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E327">
         <v>0.651</v>
       </c>
@@ -7938,6 +8959,9 @@
       <c r="C328" t="s">
         <v>115</v>
       </c>
+      <c r="D328" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E328">
         <v>0.72</v>
       </c>
@@ -7979,6 +9003,9 @@
       <c r="C329" t="s">
         <v>116</v>
       </c>
+      <c r="D329" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L329">
         <v>0.8149999999999999</v>
       </c>
@@ -8005,6 +9032,9 @@
       <c r="C330" t="s">
         <v>117</v>
       </c>
+      <c r="D330" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E330">
         <v>0.6919999999999999</v>
       </c>
@@ -8055,6 +9085,9 @@
       <c r="C331" t="s">
         <v>118</v>
       </c>
+      <c r="D331" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L331">
         <v>0.788</v>
       </c>
@@ -8069,6 +9102,9 @@
       <c r="C332" t="s">
         <v>119</v>
       </c>
+      <c r="D332" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E332">
         <v>0.546</v>
       </c>
@@ -8101,6 +9137,9 @@
       <c r="C333" t="s">
         <v>120</v>
       </c>
+      <c r="D333" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E333">
         <v>0.954</v>
       </c>
@@ -8151,6 +9190,9 @@
       <c r="C334" t="s">
         <v>121</v>
       </c>
+      <c r="D334" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E334">
         <v>0.607</v>
       </c>
@@ -8201,6 +9243,9 @@
       <c r="C335" t="s">
         <v>122</v>
       </c>
+      <c r="D335" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L335">
         <v>0.997</v>
       </c>
@@ -8221,6 +9266,9 @@
       <c r="C336" t="s">
         <v>113</v>
       </c>
+      <c r="D336" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L336">
         <v>0.8149999999999999</v>
       </c>
@@ -8235,6 +9283,9 @@
       <c r="C337" t="s">
         <v>115</v>
       </c>
+      <c r="D337" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G337">
         <v>0.98</v>
       </c>
@@ -8252,6 +9303,9 @@
       <c r="C338" t="s">
         <v>116</v>
       </c>
+      <c r="D338" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L338">
         <v>0.986</v>
       </c>
@@ -8266,6 +9320,9 @@
       <c r="C339" t="s">
         <v>117</v>
       </c>
+      <c r="D339" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G339">
         <v>0.931</v>
       </c>
@@ -8295,6 +9352,9 @@
       <c r="C340" t="s">
         <v>118</v>
       </c>
+      <c r="D340" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L340">
         <v>0.962</v>
       </c>
@@ -8309,6 +9369,9 @@
       <c r="C341" t="s">
         <v>119</v>
       </c>
+      <c r="D341" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G341">
         <v>0.731</v>
       </c>
@@ -8338,6 +9401,9 @@
       <c r="C342" t="s">
         <v>120</v>
       </c>
+      <c r="D342" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G342">
         <v>0.736</v>
       </c>
@@ -8367,6 +9433,9 @@
       <c r="C343" t="s">
         <v>121</v>
       </c>
+      <c r="D343" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G343">
         <v>0.967</v>
       </c>
@@ -8396,6 +9465,9 @@
       <c r="C344" t="s">
         <v>113</v>
       </c>
+      <c r="D344" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L344">
         <v>0.822</v>
       </c>
@@ -8425,6 +9497,9 @@
       <c r="C345" t="s">
         <v>115</v>
       </c>
+      <c r="D345" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E345">
         <v>0.987</v>
       </c>
@@ -8466,6 +9541,9 @@
       <c r="C346" t="s">
         <v>116</v>
       </c>
+      <c r="D346" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L346">
         <v>0.964</v>
       </c>
@@ -8492,6 +9570,9 @@
       <c r="C347" t="s">
         <v>117</v>
       </c>
+      <c r="D347" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E347">
         <v>0.784</v>
       </c>
@@ -8542,6 +9623,9 @@
       <c r="C348" t="s">
         <v>118</v>
       </c>
+      <c r="D348" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L348">
         <v>0.944</v>
       </c>
@@ -8556,6 +9640,9 @@
       <c r="C349" t="s">
         <v>119</v>
       </c>
+      <c r="D349" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G349">
         <v>0.736</v>
       </c>
@@ -8585,6 +9672,9 @@
       <c r="C350" t="s">
         <v>120</v>
       </c>
+      <c r="D350" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E350">
         <v>0.627</v>
       </c>
@@ -8635,6 +9725,9 @@
       <c r="C351" t="s">
         <v>121</v>
       </c>
+      <c r="D351" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E351">
         <v>0.957</v>
       </c>
@@ -8685,6 +9778,9 @@
       <c r="C352" t="s">
         <v>122</v>
       </c>
+      <c r="D352" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L352">
         <v>0.824</v>
       </c>
@@ -8705,6 +9801,9 @@
       <c r="C353" t="s">
         <v>113</v>
       </c>
+      <c r="D353" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E353">
         <v>0.73</v>
       </c>
@@ -8719,6 +9818,9 @@
       <c r="C354" t="s">
         <v>114</v>
       </c>
+      <c r="D354" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E354">
         <v>0.761</v>
       </c>
@@ -8733,6 +9835,9 @@
       <c r="C355" t="s">
         <v>115</v>
       </c>
+      <c r="D355" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E355">
         <v>0.519</v>
       </c>
@@ -8747,6 +9852,9 @@
       <c r="C356" t="s">
         <v>117</v>
       </c>
+      <c r="D356" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E356">
         <v>0.795</v>
       </c>
@@ -8761,6 +9869,9 @@
       <c r="C357" t="s">
         <v>119</v>
       </c>
+      <c r="D357" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E357">
         <v>0.596</v>
       </c>
@@ -8775,6 +9886,9 @@
       <c r="C358" t="s">
         <v>120</v>
       </c>
+      <c r="D358" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E358">
         <v>0.651</v>
       </c>
@@ -8789,6 +9903,9 @@
       <c r="C359" t="s">
         <v>121</v>
       </c>
+      <c r="D359" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E359">
         <v>0.975</v>
       </c>
@@ -8803,6 +9920,9 @@
       <c r="C360" t="s">
         <v>113</v>
       </c>
+      <c r="D360" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L360">
         <v>0.997</v>
       </c>
@@ -8832,6 +9952,9 @@
       <c r="C361" t="s">
         <v>115</v>
       </c>
+      <c r="D361" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L361">
         <v>0.787</v>
       </c>
@@ -8861,6 +9984,9 @@
       <c r="C362" t="s">
         <v>116</v>
       </c>
+      <c r="D362" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L362">
         <v>0.832</v>
       </c>
@@ -8887,6 +10013,9 @@
       <c r="C363" t="s">
         <v>117</v>
       </c>
+      <c r="D363" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L363">
         <v>0.8129999999999999</v>
       </c>
@@ -8916,6 +10045,9 @@
       <c r="C364" t="s">
         <v>120</v>
       </c>
+      <c r="D364" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L364">
         <v>0.98</v>
       </c>
@@ -8945,6 +10077,9 @@
       <c r="C365" t="s">
         <v>121</v>
       </c>
+      <c r="D365" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L365">
         <v>0.821</v>
       </c>
@@ -8974,6 +10109,9 @@
       <c r="C366" t="s">
         <v>122</v>
       </c>
+      <c r="D366" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L366">
         <v>0.988</v>
       </c>
@@ -8994,6 +10132,9 @@
       <c r="C367" t="s">
         <v>115</v>
       </c>
+      <c r="D367" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E367">
         <v>0.987</v>
       </c>
@@ -9014,6 +10155,9 @@
       <c r="C368" t="s">
         <v>117</v>
       </c>
+      <c r="D368" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E368">
         <v>0.838</v>
       </c>
@@ -9034,6 +10178,9 @@
       <c r="C369" t="s">
         <v>120</v>
       </c>
+      <c r="D369" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E369">
         <v>0.828</v>
       </c>
@@ -9054,6 +10201,9 @@
       <c r="C370" t="s">
         <v>121</v>
       </c>
+      <c r="D370" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E370">
         <v>0.65</v>
       </c>
@@ -9074,6 +10224,9 @@
       <c r="C371" t="s">
         <v>113</v>
       </c>
+      <c r="D371" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L371">
         <v>0.997</v>
       </c>
@@ -9103,6 +10256,9 @@
       <c r="C372" t="s">
         <v>115</v>
       </c>
+      <c r="D372" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L372">
         <v>0.79</v>
       </c>
@@ -9132,6 +10288,9 @@
       <c r="C373" t="s">
         <v>116</v>
       </c>
+      <c r="D373" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L373">
         <v>0.829</v>
       </c>
@@ -9158,6 +10317,9 @@
       <c r="C374" t="s">
         <v>117</v>
       </c>
+      <c r="D374" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L374">
         <v>0.8139999999999999</v>
       </c>
@@ -9187,6 +10349,9 @@
       <c r="C375" t="s">
         <v>120</v>
       </c>
+      <c r="D375" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L375">
         <v>0.991</v>
       </c>
@@ -9216,6 +10381,9 @@
       <c r="C376" t="s">
         <v>121</v>
       </c>
+      <c r="D376" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L376">
         <v>0.823</v>
       </c>
@@ -9245,6 +10413,9 @@
       <c r="C377" t="s">
         <v>122</v>
       </c>
+      <c r="D377" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L377">
         <v>0.997</v>
       </c>
@@ -9265,6 +10436,9 @@
       <c r="C378" t="s">
         <v>113</v>
       </c>
+      <c r="D378" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="P378">
         <v>0.87</v>
       </c>
@@ -9282,6 +10456,9 @@
       <c r="C379" t="s">
         <v>115</v>
       </c>
+      <c r="D379" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="P379">
         <v>0.796</v>
       </c>
@@ -9299,6 +10476,9 @@
       <c r="C380" t="s">
         <v>116</v>
       </c>
+      <c r="D380" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="P380">
         <v>0.87</v>
       </c>
@@ -9313,6 +10493,9 @@
       <c r="C381" t="s">
         <v>117</v>
       </c>
+      <c r="D381" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="P381">
         <v>0.791</v>
       </c>
@@ -9330,6 +10513,9 @@
       <c r="C382" t="s">
         <v>120</v>
       </c>
+      <c r="D382" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="P382">
         <v>0.971</v>
       </c>
@@ -9347,6 +10533,9 @@
       <c r="C383" t="s">
         <v>121</v>
       </c>
+      <c r="D383" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="P383">
         <v>0.797</v>
       </c>
@@ -9364,6 +10553,9 @@
       <c r="C384" t="s">
         <v>113</v>
       </c>
+      <c r="D384" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E384">
         <v>0.702</v>
       </c>
@@ -9378,6 +10570,9 @@
       <c r="C385" t="s">
         <v>114</v>
       </c>
+      <c r="D385" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E385">
         <v>0.925</v>
       </c>
@@ -9392,6 +10587,9 @@
       <c r="C386" t="s">
         <v>115</v>
       </c>
+      <c r="D386" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E386">
         <v>0.665</v>
       </c>
@@ -9412,6 +10610,9 @@
       <c r="C387" t="s">
         <v>117</v>
       </c>
+      <c r="D387" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E387">
         <v>0.875</v>
       </c>
@@ -9432,6 +10633,9 @@
       <c r="C388" t="s">
         <v>119</v>
       </c>
+      <c r="D388" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E388">
         <v>0.606</v>
       </c>
@@ -9446,6 +10650,9 @@
       <c r="C389" t="s">
         <v>120</v>
       </c>
+      <c r="D389" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E389">
         <v>0.636</v>
       </c>
@@ -9466,6 +10673,9 @@
       <c r="C390" t="s">
         <v>121</v>
       </c>
+      <c r="D390" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E390">
         <v>0.917</v>
       </c>
@@ -9486,6 +10696,9 @@
       <c r="C391" t="s">
         <v>115</v>
       </c>
+      <c r="D391" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E391">
         <v>0.776</v>
       </c>
@@ -9503,6 +10716,9 @@
       <c r="C392" t="s">
         <v>117</v>
       </c>
+      <c r="D392" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E392">
         <v>0.913</v>
       </c>
@@ -9520,6 +10736,9 @@
       <c r="C393" t="s">
         <v>120</v>
       </c>
+      <c r="D393" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E393">
         <v>0.666</v>
       </c>
@@ -9537,6 +10756,9 @@
       <c r="C394" t="s">
         <v>121</v>
       </c>
+      <c r="D394" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E394">
         <v>0.843</v>
       </c>
@@ -9554,6 +10776,9 @@
       <c r="C395" t="s">
         <v>113</v>
       </c>
+      <c r="D395" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E395">
         <v>0.8070000000000001</v>
       </c>
@@ -9586,6 +10811,9 @@
       <c r="C396" t="s">
         <v>114</v>
       </c>
+      <c r="D396" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E396">
         <v>0.849</v>
       </c>
@@ -9600,6 +10828,9 @@
       <c r="C397" t="s">
         <v>115</v>
       </c>
+      <c r="D397" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E397">
         <v>0.695</v>
       </c>
@@ -9641,6 +10872,9 @@
       <c r="C398" t="s">
         <v>116</v>
       </c>
+      <c r="D398" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L398">
         <v>0.972</v>
       </c>
@@ -9667,6 +10901,9 @@
       <c r="C399" t="s">
         <v>117</v>
       </c>
+      <c r="D399" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E399">
         <v>0.892</v>
       </c>
@@ -9717,6 +10954,9 @@
       <c r="C400" t="s">
         <v>118</v>
       </c>
+      <c r="D400" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L400">
         <v>0.9330000000000001</v>
       </c>
@@ -9731,6 +10971,9 @@
       <c r="C401" t="s">
         <v>119</v>
       </c>
+      <c r="D401" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E401">
         <v>0.645</v>
       </c>
@@ -9763,6 +11006,9 @@
       <c r="C402" t="s">
         <v>120</v>
       </c>
+      <c r="D402" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E402">
         <v>0.6870000000000001</v>
       </c>
@@ -9813,6 +11059,9 @@
       <c r="C403" t="s">
         <v>121</v>
       </c>
+      <c r="D403" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E403">
         <v>0.921</v>
       </c>
@@ -9863,6 +11112,9 @@
       <c r="C404" t="s">
         <v>122</v>
       </c>
+      <c r="D404" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L404">
         <v>0.828</v>
       </c>
@@ -9883,6 +11135,9 @@
       <c r="C405" t="s">
         <v>115</v>
       </c>
+      <c r="D405" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E405">
         <v>0.987</v>
       </c>
@@ -9900,6 +11155,9 @@
       <c r="C406" t="s">
         <v>117</v>
       </c>
+      <c r="D406" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E406">
         <v>0.915</v>
       </c>
@@ -9917,6 +11175,9 @@
       <c r="C407" t="s">
         <v>120</v>
       </c>
+      <c r="D407" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E407">
         <v>0.695</v>
       </c>
@@ -9934,6 +11195,9 @@
       <c r="C408" t="s">
         <v>121</v>
       </c>
+      <c r="D408" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E408">
         <v>0.844</v>
       </c>
@@ -9951,6 +11215,9 @@
       <c r="C409" t="s">
         <v>113</v>
       </c>
+      <c r="D409" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="M409">
         <v>0.775</v>
       </c>
@@ -9977,6 +11244,9 @@
       <c r="C410" t="s">
         <v>115</v>
       </c>
+      <c r="D410" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M410">
         <v>0.858</v>
       </c>
@@ -10003,6 +11273,9 @@
       <c r="C411" t="s">
         <v>116</v>
       </c>
+      <c r="D411" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="M411">
         <v>0.977</v>
       </c>
@@ -10026,6 +11299,9 @@
       <c r="C412" t="s">
         <v>117</v>
       </c>
+      <c r="D412" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="M412">
         <v>0.966</v>
       </c>
@@ -10052,6 +11328,9 @@
       <c r="C413" t="s">
         <v>120</v>
       </c>
+      <c r="D413" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="M413">
         <v>0.79</v>
       </c>
@@ -10078,6 +11357,9 @@
       <c r="C414" t="s">
         <v>121</v>
       </c>
+      <c r="D414" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="M414">
         <v>0.967</v>
       </c>
@@ -10104,6 +11386,9 @@
       <c r="C415" t="s">
         <v>122</v>
       </c>
+      <c r="D415" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="M415">
         <v>0.787</v>
       </c>
@@ -10121,6 +11406,9 @@
       <c r="C416" t="s">
         <v>113</v>
       </c>
+      <c r="D416" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L416">
         <v>0.998</v>
       </c>
@@ -10135,6 +11423,9 @@
       <c r="C417" t="s">
         <v>115</v>
       </c>
+      <c r="D417" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K417">
         <v>0.737</v>
       </c>
@@ -10149,6 +11440,9 @@
       <c r="C418" t="s">
         <v>116</v>
       </c>
+      <c r="D418" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L418">
         <v>0.821</v>
       </c>
@@ -10163,6 +11457,9 @@
       <c r="C419" t="s">
         <v>117</v>
       </c>
+      <c r="D419" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="J419">
         <v>0.854</v>
       </c>
@@ -10183,6 +11480,9 @@
       <c r="C420" t="s">
         <v>118</v>
       </c>
+      <c r="D420" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L420">
         <v>0.782</v>
       </c>
@@ -10197,6 +11497,9 @@
       <c r="C421" t="s">
         <v>119</v>
       </c>
+      <c r="D421" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="J421">
         <v>0.586</v>
       </c>
@@ -10217,6 +11520,9 @@
       <c r="C422" t="s">
         <v>120</v>
       </c>
+      <c r="D422" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="J422">
         <v>0.981</v>
       </c>
@@ -10237,6 +11543,9 @@
       <c r="C423" t="s">
         <v>121</v>
       </c>
+      <c r="D423" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="J423">
         <v>0.829</v>
       </c>
@@ -10257,6 +11566,9 @@
       <c r="C424" t="s">
         <v>113</v>
       </c>
+      <c r="D424" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L424">
         <v>0.788</v>
       </c>
@@ -10286,6 +11598,9 @@
       <c r="C425" t="s">
         <v>115</v>
       </c>
+      <c r="D425" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L425">
         <v>1</v>
       </c>
@@ -10315,6 +11630,9 @@
       <c r="C426" t="s">
         <v>116</v>
       </c>
+      <c r="D426" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L426">
         <v>0.84</v>
       </c>
@@ -10341,6 +11659,9 @@
       <c r="C427" t="s">
         <v>117</v>
       </c>
+      <c r="D427" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L427">
         <v>0.858</v>
       </c>
@@ -10370,6 +11691,9 @@
       <c r="C428" t="s">
         <v>120</v>
       </c>
+      <c r="D428" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L428">
         <v>0.831</v>
       </c>
@@ -10399,6 +11723,9 @@
       <c r="C429" t="s">
         <v>121</v>
       </c>
+      <c r="D429" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L429">
         <v>0.835</v>
       </c>
@@ -10428,6 +11755,9 @@
       <c r="C430" t="s">
         <v>122</v>
       </c>
+      <c r="D430" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L430">
         <v>0.802</v>
       </c>
@@ -10448,6 +11778,9 @@
       <c r="C431" t="s">
         <v>113</v>
       </c>
+      <c r="D431" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L431">
         <v>0.799</v>
       </c>
@@ -10477,6 +11810,9 @@
       <c r="C432" t="s">
         <v>115</v>
       </c>
+      <c r="D432" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G432">
         <v>0.985</v>
       </c>
@@ -10512,6 +11848,9 @@
       <c r="C433" t="s">
         <v>116</v>
       </c>
+      <c r="D433" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L433">
         <v>0.945</v>
       </c>
@@ -10538,6 +11877,9 @@
       <c r="C434" t="s">
         <v>117</v>
       </c>
+      <c r="D434" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G434">
         <v>0.908</v>
       </c>
@@ -10582,6 +11924,9 @@
       <c r="C435" t="s">
         <v>118</v>
       </c>
+      <c r="D435" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L435">
         <v>0.924</v>
       </c>
@@ -10596,6 +11941,9 @@
       <c r="C436" t="s">
         <v>119</v>
       </c>
+      <c r="D436" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G436">
         <v>0.714</v>
       </c>
@@ -10625,6 +11973,9 @@
       <c r="C437" t="s">
         <v>120</v>
       </c>
+      <c r="D437" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G437">
         <v>0.651</v>
       </c>
@@ -10669,6 +12020,9 @@
       <c r="C438" t="s">
         <v>121</v>
       </c>
+      <c r="D438" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G438">
         <v>0.971</v>
       </c>
@@ -10713,6 +12067,9 @@
       <c r="C439" t="s">
         <v>122</v>
       </c>
+      <c r="D439" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L439">
         <v>0.744</v>
       </c>
@@ -10733,6 +12090,9 @@
       <c r="C440" t="s">
         <v>113</v>
       </c>
+      <c r="D440" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E440">
         <v>0.676</v>
       </c>
@@ -10747,6 +12107,9 @@
       <c r="C441" t="s">
         <v>114</v>
       </c>
+      <c r="D441" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E441">
         <v>0.901</v>
       </c>
@@ -10761,6 +12124,9 @@
       <c r="C442" t="s">
         <v>115</v>
       </c>
+      <c r="D442" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E442">
         <v>0.677</v>
       </c>
@@ -10775,6 +12141,9 @@
       <c r="C443" t="s">
         <v>117</v>
       </c>
+      <c r="D443" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E443">
         <v>0.863</v>
       </c>
@@ -10789,6 +12158,9 @@
       <c r="C444" t="s">
         <v>119</v>
       </c>
+      <c r="D444" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E444">
         <v>0.605</v>
       </c>
@@ -10803,6 +12175,9 @@
       <c r="C445" t="s">
         <v>120</v>
       </c>
+      <c r="D445" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E445">
         <v>0.62</v>
       </c>
@@ -10817,6 +12192,9 @@
       <c r="C446" t="s">
         <v>121</v>
       </c>
+      <c r="D446" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E446">
         <v>0.912</v>
       </c>
@@ -10831,6 +12209,9 @@
       <c r="C447" t="s">
         <v>115</v>
       </c>
+      <c r="D447" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E447">
         <v>0.987</v>
       </c>
@@ -10851,6 +12232,9 @@
       <c r="C448" t="s">
         <v>117</v>
       </c>
+      <c r="D448" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E448">
         <v>0.915</v>
       </c>
@@ -10871,6 +12255,9 @@
       <c r="C449" t="s">
         <v>120</v>
       </c>
+      <c r="D449" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E449">
         <v>0.674</v>
       </c>
@@ -10891,6 +12278,9 @@
       <c r="C450" t="s">
         <v>121</v>
       </c>
+      <c r="D450" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E450">
         <v>0.8129999999999999</v>
       </c>
@@ -10911,6 +12301,9 @@
       <c r="C451" t="s">
         <v>115</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E451">
         <v>0.987</v>
       </c>
@@ -10931,6 +12324,9 @@
       <c r="C452" t="s">
         <v>117</v>
       </c>
+      <c r="D452" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E452">
         <v>0.893</v>
       </c>
@@ -10951,6 +12347,9 @@
       <c r="C453" t="s">
         <v>120</v>
       </c>
+      <c r="D453" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E453">
         <v>0.714</v>
       </c>
@@ -10971,6 +12370,9 @@
       <c r="C454" t="s">
         <v>121</v>
       </c>
+      <c r="D454" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E454">
         <v>0.819</v>
       </c>
@@ -10991,6 +12393,9 @@
       <c r="C455" t="s">
         <v>113</v>
       </c>
+      <c r="D455" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L455">
         <v>0.805</v>
       </c>
@@ -11020,6 +12425,9 @@
       <c r="C456" t="s">
         <v>115</v>
       </c>
+      <c r="D456" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G456">
         <v>0.357</v>
       </c>
@@ -11055,6 +12463,9 @@
       <c r="C457" t="s">
         <v>116</v>
       </c>
+      <c r="D457" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L457">
         <v>0.831</v>
       </c>
@@ -11081,6 +12492,9 @@
       <c r="C458" t="s">
         <v>117</v>
       </c>
+      <c r="D458" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G458">
         <v>0.6919999999999999</v>
       </c>
@@ -11125,6 +12539,9 @@
       <c r="C459" t="s">
         <v>118</v>
       </c>
+      <c r="D459" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L459">
         <v>0.833</v>
       </c>
@@ -11139,6 +12556,9 @@
       <c r="C460" t="s">
         <v>119</v>
       </c>
+      <c r="D460" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G460">
         <v>0.5679999999999999</v>
       </c>
@@ -11168,6 +12588,9 @@
       <c r="C461" t="s">
         <v>120</v>
       </c>
+      <c r="D461" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G461">
         <v>0.777</v>
       </c>
@@ -11212,6 +12635,9 @@
       <c r="C462" t="s">
         <v>121</v>
       </c>
+      <c r="D462" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G462">
         <v>0.586</v>
       </c>
@@ -11256,6 +12682,9 @@
       <c r="C463" t="s">
         <v>122</v>
       </c>
+      <c r="D463" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L463">
         <v>0.833</v>
       </c>
@@ -11276,6 +12705,9 @@
       <c r="C464" t="s">
         <v>113</v>
       </c>
+      <c r="D464" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L464">
         <v>0.767</v>
       </c>
@@ -11290,6 +12722,9 @@
       <c r="C465" t="s">
         <v>115</v>
       </c>
+      <c r="D465" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K465">
         <v>0.758</v>
       </c>
@@ -11304,6 +12739,9 @@
       <c r="C466" t="s">
         <v>116</v>
       </c>
+      <c r="D466" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L466">
         <v>0.823</v>
       </c>
@@ -11318,6 +12756,9 @@
       <c r="C467" t="s">
         <v>117</v>
       </c>
+      <c r="D467" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="K467">
         <v>0.842</v>
       </c>
@@ -11335,6 +12776,9 @@
       <c r="C468" t="s">
         <v>118</v>
       </c>
+      <c r="D468" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L468">
         <v>0.84</v>
       </c>
@@ -11349,6 +12793,9 @@
       <c r="C469" t="s">
         <v>119</v>
       </c>
+      <c r="D469" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="K469">
         <v>0.747</v>
       </c>
@@ -11366,6 +12813,9 @@
       <c r="C470" t="s">
         <v>120</v>
       </c>
+      <c r="D470" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="K470">
         <v>0.837</v>
       </c>
@@ -11383,6 +12833,9 @@
       <c r="C471" t="s">
         <v>121</v>
       </c>
+      <c r="D471" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="K471">
         <v>0.781</v>
       </c>
@@ -11400,6 +12853,9 @@
       <c r="C472" t="s">
         <v>113</v>
       </c>
+      <c r="D472" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E472">
         <v>0.659</v>
       </c>
@@ -11414,6 +12870,9 @@
       <c r="C473" t="s">
         <v>114</v>
       </c>
+      <c r="D473" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E473">
         <v>1</v>
       </c>
@@ -11428,6 +12887,9 @@
       <c r="C474" t="s">
         <v>115</v>
       </c>
+      <c r="D474" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E474">
         <v>0.578</v>
       </c>
@@ -11442,6 +12904,9 @@
       <c r="C475" t="s">
         <v>117</v>
       </c>
+      <c r="D475" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E475">
         <v>0.769</v>
       </c>
@@ -11456,6 +12921,9 @@
       <c r="C476" t="s">
         <v>119</v>
       </c>
+      <c r="D476" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E476">
         <v>0.617</v>
       </c>
@@ -11470,6 +12938,9 @@
       <c r="C477" t="s">
         <v>120</v>
       </c>
+      <c r="D477" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E477">
         <v>0.542</v>
       </c>
@@ -11484,6 +12955,9 @@
       <c r="C478" t="s">
         <v>121</v>
       </c>
+      <c r="D478" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E478">
         <v>0.8129999999999999</v>
       </c>
@@ -11498,6 +12972,9 @@
       <c r="C479" t="s">
         <v>113</v>
       </c>
+      <c r="D479" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E479">
         <v>0.573</v>
       </c>
@@ -11512,6 +12989,9 @@
       <c r="C480" t="s">
         <v>114</v>
       </c>
+      <c r="D480" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E480">
         <v>0.678</v>
       </c>
@@ -11526,6 +13006,9 @@
       <c r="C481" t="s">
         <v>115</v>
       </c>
+      <c r="D481" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E481">
         <v>0.769</v>
       </c>
@@ -11540,6 +13023,9 @@
       <c r="C482" t="s">
         <v>117</v>
       </c>
+      <c r="D482" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E482">
         <v>0.602</v>
       </c>
@@ -11554,6 +13040,9 @@
       <c r="C483" t="s">
         <v>119</v>
       </c>
+      <c r="D483" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E483">
         <v>0.826</v>
       </c>
@@ -11568,6 +13057,9 @@
       <c r="C484" t="s">
         <v>120</v>
       </c>
+      <c r="D484" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E484">
         <v>0.572</v>
       </c>
@@ -11582,6 +13074,9 @@
       <c r="C485" t="s">
         <v>121</v>
       </c>
+      <c r="D485" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E485">
         <v>0.616</v>
       </c>
@@ -11596,6 +13091,9 @@
       <c r="C486" t="s">
         <v>113</v>
       </c>
+      <c r="D486" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L486">
         <v>0.802</v>
       </c>
@@ -11610,6 +13108,9 @@
       <c r="C487" t="s">
         <v>115</v>
       </c>
+      <c r="D487" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G487">
         <v>0.962</v>
       </c>
@@ -11627,6 +13128,9 @@
       <c r="C488" t="s">
         <v>116</v>
       </c>
+      <c r="D488" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L488">
         <v>0.971</v>
       </c>
@@ -11641,6 +13145,9 @@
       <c r="C489" t="s">
         <v>117</v>
       </c>
+      <c r="D489" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G489">
         <v>0.907</v>
       </c>
@@ -11670,6 +13177,9 @@
       <c r="C490" t="s">
         <v>118</v>
       </c>
+      <c r="D490" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L490">
         <v>0.95</v>
       </c>
@@ -11684,6 +13194,9 @@
       <c r="C491" t="s">
         <v>119</v>
       </c>
+      <c r="D491" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G491">
         <v>0.734</v>
       </c>
@@ -11713,6 +13226,9 @@
       <c r="C492" t="s">
         <v>120</v>
       </c>
+      <c r="D492" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G492">
         <v>0.672</v>
       </c>
@@ -11742,6 +13258,9 @@
       <c r="C493" t="s">
         <v>121</v>
       </c>
+      <c r="D493" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G493">
         <v>0.969</v>
       </c>
@@ -11771,6 +13290,9 @@
       <c r="C494" t="s">
         <v>115</v>
       </c>
+      <c r="D494" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E494">
         <v>0.987</v>
       </c>
@@ -11785,6 +13307,9 @@
       <c r="C495" t="s">
         <v>117</v>
       </c>
+      <c r="D495" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E495">
         <v>0.919</v>
       </c>
@@ -11802,6 +13327,9 @@
       <c r="C496" t="s">
         <v>120</v>
       </c>
+      <c r="D496" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E496">
         <v>0.657</v>
       </c>
@@ -11819,6 +13347,9 @@
       <c r="C497" t="s">
         <v>121</v>
       </c>
+      <c r="D497" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E497">
         <v>0.839</v>
       </c>
@@ -11836,6 +13367,9 @@
       <c r="C498" t="s">
         <v>113</v>
       </c>
+      <c r="D498" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E498">
         <v>0.782</v>
       </c>
@@ -11850,6 +13384,9 @@
       <c r="C499" t="s">
         <v>114</v>
       </c>
+      <c r="D499" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E499">
         <v>0.538</v>
       </c>
@@ -11864,6 +13401,9 @@
       <c r="C500" t="s">
         <v>115</v>
       </c>
+      <c r="D500" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E500">
         <v>0.588</v>
       </c>
@@ -11878,6 +13418,9 @@
       <c r="C501" t="s">
         <v>117</v>
       </c>
+      <c r="D501" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E501">
         <v>0.6899999999999999</v>
       </c>
@@ -11892,6 +13435,9 @@
       <c r="C502" t="s">
         <v>119</v>
       </c>
+      <c r="D502" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E502">
         <v>0.575</v>
       </c>
@@ -11906,6 +13452,9 @@
       <c r="C503" t="s">
         <v>120</v>
       </c>
+      <c r="D503" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E503">
         <v>0.955</v>
       </c>
@@ -11920,6 +13469,9 @@
       <c r="C504" t="s">
         <v>121</v>
       </c>
+      <c r="D504" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E504">
         <v>0.649</v>
       </c>
@@ -11934,6 +13486,9 @@
       <c r="C505" t="s">
         <v>113</v>
       </c>
+      <c r="D505" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E505">
         <v>0.6889999999999999</v>
       </c>
@@ -11948,6 +13503,9 @@
       <c r="C506" t="s">
         <v>114</v>
       </c>
+      <c r="D506" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E506">
         <v>0.839</v>
       </c>
@@ -11962,6 +13520,9 @@
       <c r="C507" t="s">
         <v>115</v>
       </c>
+      <c r="D507" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E507">
         <v>0.553</v>
       </c>
@@ -11976,6 +13537,9 @@
       <c r="C508" t="s">
         <v>117</v>
       </c>
+      <c r="D508" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E508">
         <v>0.796</v>
       </c>
@@ -11990,6 +13554,9 @@
       <c r="C509" t="s">
         <v>119</v>
       </c>
+      <c r="D509" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E509">
         <v>0.597</v>
       </c>
@@ -12004,6 +13571,9 @@
       <c r="C510" t="s">
         <v>120</v>
       </c>
+      <c r="D510" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E510">
         <v>0.596</v>
       </c>
@@ -12018,6 +13588,9 @@
       <c r="C511" t="s">
         <v>121</v>
       </c>
+      <c r="D511" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E511">
         <v>0.876</v>
       </c>
@@ -12032,6 +13605,9 @@
       <c r="C512" t="s">
         <v>113</v>
       </c>
+      <c r="D512" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L512">
         <v>0.765</v>
       </c>
@@ -12061,6 +13637,9 @@
       <c r="C513" t="s">
         <v>115</v>
       </c>
+      <c r="D513" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E513">
         <v>0.987</v>
       </c>
@@ -12099,6 +13678,9 @@
       <c r="C514" t="s">
         <v>116</v>
       </c>
+      <c r="D514" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L514">
         <v>0.996</v>
       </c>
@@ -12125,6 +13707,9 @@
       <c r="C515" t="s">
         <v>117</v>
       </c>
+      <c r="D515" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E515">
         <v>0.842</v>
       </c>
@@ -12172,6 +13757,9 @@
       <c r="C516" t="s">
         <v>119</v>
       </c>
+      <c r="D516" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G516">
         <v>0.675</v>
       </c>
@@ -12195,6 +13783,9 @@
       <c r="C517" t="s">
         <v>120</v>
       </c>
+      <c r="D517" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E517">
         <v>0.835</v>
       </c>
@@ -12242,6 +13833,9 @@
       <c r="C518" t="s">
         <v>121</v>
       </c>
+      <c r="D518" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E518">
         <v>0.66</v>
       </c>
@@ -12289,6 +13883,9 @@
       <c r="C519" t="s">
         <v>122</v>
       </c>
+      <c r="D519" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L519">
         <v>0.772</v>
       </c>
@@ -12309,6 +13906,9 @@
       <c r="C520" t="s">
         <v>113</v>
       </c>
+      <c r="D520" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L520">
         <v>0.837</v>
       </c>
@@ -12323,6 +13923,9 @@
       <c r="C521" t="s">
         <v>115</v>
       </c>
+      <c r="D521" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E521">
         <v>0.987</v>
       </c>
@@ -12346,6 +13949,9 @@
       <c r="C522" t="s">
         <v>116</v>
       </c>
+      <c r="D522" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L522">
         <v>0.95</v>
       </c>
@@ -12360,6 +13966,9 @@
       <c r="C523" t="s">
         <v>117</v>
       </c>
+      <c r="D523" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E523">
         <v>0.917</v>
       </c>
@@ -12395,6 +14004,9 @@
       <c r="C524" t="s">
         <v>119</v>
       </c>
+      <c r="D524" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G524">
         <v>0.753</v>
       </c>
@@ -12424,6 +14036,9 @@
       <c r="C525" t="s">
         <v>120</v>
       </c>
+      <c r="D525" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E525">
         <v>0.68</v>
       </c>
@@ -12459,6 +14074,9 @@
       <c r="C526" t="s">
         <v>121</v>
       </c>
+      <c r="D526" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E526">
         <v>0.845</v>
       </c>
@@ -12494,6 +14112,9 @@
       <c r="C527" t="s">
         <v>113</v>
       </c>
+      <c r="D527" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L527">
         <v>0.773</v>
       </c>
@@ -12523,6 +14144,9 @@
       <c r="C528" t="s">
         <v>115</v>
       </c>
+      <c r="D528" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E528">
         <v>0.987</v>
       </c>
@@ -12564,6 +14188,9 @@
       <c r="C529" t="s">
         <v>116</v>
       </c>
+      <c r="D529" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L529">
         <v>0.83</v>
       </c>
@@ -12590,6 +14217,9 @@
       <c r="C530" t="s">
         <v>117</v>
       </c>
+      <c r="D530" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E530">
         <v>0.843</v>
       </c>
@@ -12640,6 +14270,9 @@
       <c r="C531" t="s">
         <v>118</v>
       </c>
+      <c r="D531" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L531">
         <v>0.823</v>
       </c>
@@ -12654,6 +14287,9 @@
       <c r="C532" t="s">
         <v>119</v>
       </c>
+      <c r="D532" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G532">
         <v>0.58</v>
       </c>
@@ -12683,6 +14319,9 @@
       <c r="C533" t="s">
         <v>120</v>
       </c>
+      <c r="D533" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E533">
         <v>0.837</v>
       </c>
@@ -12733,6 +14372,9 @@
       <c r="C534" t="s">
         <v>121</v>
       </c>
+      <c r="D534" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E534">
         <v>0.66</v>
       </c>
@@ -12783,6 +14425,9 @@
       <c r="C535" t="s">
         <v>122</v>
       </c>
+      <c r="D535" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L535">
         <v>0.822</v>
       </c>
@@ -12803,6 +14448,9 @@
       <c r="C536" t="s">
         <v>113</v>
       </c>
+      <c r="D536" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E536">
         <v>0.6899999999999999</v>
       </c>
@@ -12817,6 +14465,9 @@
       <c r="C537" t="s">
         <v>114</v>
       </c>
+      <c r="D537" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E537">
         <v>0.913</v>
       </c>
@@ -12831,6 +14482,9 @@
       <c r="C538" t="s">
         <v>115</v>
       </c>
+      <c r="D538" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E538">
         <v>0.671</v>
       </c>
@@ -12845,6 +14499,9 @@
       <c r="C539" t="s">
         <v>117</v>
       </c>
+      <c r="D539" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E539">
         <v>0.867</v>
       </c>
@@ -12862,6 +14519,9 @@
       <c r="C540" t="s">
         <v>119</v>
       </c>
+      <c r="D540" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E540">
         <v>0.6</v>
       </c>
@@ -12876,6 +14536,9 @@
       <c r="C541" t="s">
         <v>120</v>
       </c>
+      <c r="D541" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E541">
         <v>0.659</v>
       </c>
@@ -12893,6 +14556,9 @@
       <c r="C542" t="s">
         <v>121</v>
       </c>
+      <c r="D542" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E542">
         <v>0.899</v>
       </c>
@@ -12910,6 +14576,9 @@
       <c r="C543" t="s">
         <v>113</v>
       </c>
+      <c r="D543" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E543">
         <v>0.882</v>
       </c>
@@ -12924,6 +14593,9 @@
       <c r="C544" t="s">
         <v>114</v>
       </c>
+      <c r="D544" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E544">
         <v>0.792</v>
       </c>
@@ -12938,6 +14610,9 @@
       <c r="C545" t="s">
         <v>115</v>
       </c>
+      <c r="D545" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E545">
         <v>0.8100000000000001</v>
       </c>
@@ -12958,6 +14633,9 @@
       <c r="C546" t="s">
         <v>117</v>
       </c>
+      <c r="D546" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E546">
         <v>0.752</v>
       </c>
@@ -12984,6 +14662,9 @@
       <c r="C547" t="s">
         <v>119</v>
       </c>
+      <c r="D547" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E547">
         <v>0.579</v>
       </c>
@@ -13007,6 +14688,9 @@
       <c r="C548" t="s">
         <v>120</v>
       </c>
+      <c r="D548" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E548">
         <v>0.955</v>
       </c>
@@ -13033,6 +14717,9 @@
       <c r="C549" t="s">
         <v>121</v>
       </c>
+      <c r="D549" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E549">
         <v>0.663</v>
       </c>
@@ -13059,6 +14746,9 @@
       <c r="C550" t="s">
         <v>113</v>
       </c>
+      <c r="D550" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="O550">
         <v>0.914</v>
       </c>
@@ -13079,6 +14769,9 @@
       <c r="C551" t="s">
         <v>115</v>
       </c>
+      <c r="D551" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="O551">
         <v>0.773</v>
       </c>
@@ -13099,6 +14792,9 @@
       <c r="C552" t="s">
         <v>116</v>
       </c>
+      <c r="D552" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="O552">
         <v>0.804</v>
       </c>
@@ -13116,6 +14812,9 @@
       <c r="C553" t="s">
         <v>117</v>
       </c>
+      <c r="D553" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="O553">
         <v>0.794</v>
       </c>
@@ -13136,6 +14835,9 @@
       <c r="C554" t="s">
         <v>120</v>
       </c>
+      <c r="D554" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="O554">
         <v>0.972</v>
       </c>
@@ -13156,6 +14858,9 @@
       <c r="C555" t="s">
         <v>121</v>
       </c>
+      <c r="D555" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="O555">
         <v>0.794</v>
       </c>
@@ -13176,6 +14881,9 @@
       <c r="C556" t="s">
         <v>113</v>
       </c>
+      <c r="D556" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L556">
         <v>0.798</v>
       </c>
@@ -13190,6 +14898,9 @@
       <c r="C557" t="s">
         <v>115</v>
       </c>
+      <c r="D557" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E557">
         <v>0.987</v>
       </c>
@@ -13213,6 +14924,9 @@
       <c r="C558" t="s">
         <v>116</v>
       </c>
+      <c r="D558" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L558">
         <v>0.961</v>
       </c>
@@ -13227,6 +14941,9 @@
       <c r="C559" t="s">
         <v>117</v>
       </c>
+      <c r="D559" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E559">
         <v>0.924</v>
       </c>
@@ -13262,6 +14979,9 @@
       <c r="C560" t="s">
         <v>118</v>
       </c>
+      <c r="D560" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L560">
         <v>1</v>
       </c>
@@ -13276,6 +14996,9 @@
       <c r="C561" t="s">
         <v>119</v>
       </c>
+      <c r="D561" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G561">
         <v>0.75</v>
       </c>
@@ -13305,6 +15028,9 @@
       <c r="C562" t="s">
         <v>120</v>
       </c>
+      <c r="D562" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E562">
         <v>0.68</v>
       </c>
@@ -13340,6 +15066,9 @@
       <c r="C563" t="s">
         <v>121</v>
       </c>
+      <c r="D563" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E563">
         <v>0.856</v>
       </c>
@@ -13375,6 +15104,9 @@
       <c r="C564" t="s">
         <v>113</v>
       </c>
+      <c r="D564" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L564">
         <v>0.829</v>
       </c>
@@ -13404,6 +15136,9 @@
       <c r="C565" t="s">
         <v>115</v>
       </c>
+      <c r="D565" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L565">
         <v>0.844</v>
       </c>
@@ -13433,6 +15168,9 @@
       <c r="C566" t="s">
         <v>116</v>
       </c>
+      <c r="D566" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L566">
         <v>0.997</v>
       </c>
@@ -13459,6 +15197,9 @@
       <c r="C567" t="s">
         <v>117</v>
       </c>
+      <c r="D567" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L567">
         <v>0.962</v>
       </c>
@@ -13488,6 +15229,9 @@
       <c r="C568" t="s">
         <v>120</v>
       </c>
+      <c r="D568" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L568">
         <v>0.854</v>
       </c>
@@ -13517,6 +15261,9 @@
       <c r="C569" t="s">
         <v>121</v>
       </c>
+      <c r="D569" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L569">
         <v>0.981</v>
       </c>
@@ -13546,6 +15293,9 @@
       <c r="C570" t="s">
         <v>122</v>
       </c>
+      <c r="D570" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L570">
         <v>0.825</v>
       </c>
@@ -13566,6 +15316,9 @@
       <c r="C571" t="s">
         <v>113</v>
       </c>
+      <c r="D571" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E571">
         <v>0.991</v>
       </c>
@@ -13580,6 +15333,9 @@
       <c r="C572" t="s">
         <v>114</v>
       </c>
+      <c r="D572" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E572">
         <v>0.663</v>
       </c>
@@ -13594,6 +15350,9 @@
       <c r="C573" t="s">
         <v>115</v>
       </c>
+      <c r="D573" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E573">
         <v>0.534</v>
       </c>
@@ -13608,6 +15367,9 @@
       <c r="C574" t="s">
         <v>117</v>
       </c>
+      <c r="D574" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E574">
         <v>0.843</v>
       </c>
@@ -13622,6 +15384,9 @@
       <c r="C575" t="s">
         <v>119</v>
       </c>
+      <c r="D575" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E575">
         <v>0.5629999999999999</v>
       </c>
@@ -13636,6 +15401,9 @@
       <c r="C576" t="s">
         <v>120</v>
       </c>
+      <c r="D576" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E576">
         <v>0.756</v>
       </c>
@@ -13650,6 +15418,9 @@
       <c r="C577" t="s">
         <v>121</v>
       </c>
+      <c r="D577" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E577">
         <v>0.728</v>
       </c>
@@ -13664,6 +15435,9 @@
       <c r="C578" t="s">
         <v>113</v>
       </c>
+      <c r="D578" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E578">
         <v>0.72</v>
       </c>
@@ -13681,6 +15455,9 @@
       <c r="C579" t="s">
         <v>114</v>
       </c>
+      <c r="D579" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E579">
         <v>0.676</v>
       </c>
@@ -13695,6 +15472,9 @@
       <c r="C580" t="s">
         <v>115</v>
       </c>
+      <c r="D580" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E580">
         <v>0.866</v>
       </c>
@@ -13718,6 +15498,9 @@
       <c r="C581" t="s">
         <v>116</v>
       </c>
+      <c r="D581" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L581">
         <v>0.8080000000000001</v>
       </c>
@@ -13732,6 +15515,9 @@
       <c r="C582" t="s">
         <v>117</v>
       </c>
+      <c r="D582" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E582">
         <v>0.708</v>
       </c>
@@ -13767,6 +15553,9 @@
       <c r="C583" t="s">
         <v>118</v>
       </c>
+      <c r="D583" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L583">
         <v>0.783</v>
       </c>
@@ -13781,6 +15570,9 @@
       <c r="C584" t="s">
         <v>119</v>
       </c>
+      <c r="D584" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E584">
         <v>0.654</v>
       </c>
@@ -13813,6 +15605,9 @@
       <c r="C585" t="s">
         <v>120</v>
       </c>
+      <c r="D585" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E585">
         <v>0.95</v>
       </c>
@@ -13848,6 +15643,9 @@
       <c r="C586" t="s">
         <v>121</v>
       </c>
+      <c r="D586" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E586">
         <v>0.577</v>
       </c>
@@ -13883,6 +15681,9 @@
       <c r="C587" t="s">
         <v>115</v>
       </c>
+      <c r="D587" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E587">
         <v>0.987</v>
       </c>
@@ -13897,6 +15698,9 @@
       <c r="C588" t="s">
         <v>117</v>
       </c>
+      <c r="D588" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E588">
         <v>0.903</v>
       </c>
@@ -13911,6 +15715,9 @@
       <c r="C589" t="s">
         <v>120</v>
       </c>
+      <c r="D589" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E589">
         <v>0.6889999999999999</v>
       </c>
@@ -13925,6 +15732,9 @@
       <c r="C590" t="s">
         <v>121</v>
       </c>
+      <c r="D590" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E590">
         <v>0.829</v>
       </c>
@@ -13939,6 +15749,9 @@
       <c r="C591" t="s">
         <v>113</v>
       </c>
+      <c r="D591" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L591">
         <v>0.988</v>
       </c>
@@ -13968,6 +15781,9 @@
       <c r="C592" t="s">
         <v>115</v>
       </c>
+      <c r="D592" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L592">
         <v>0.822</v>
       </c>
@@ -13997,6 +15813,9 @@
       <c r="C593" t="s">
         <v>116</v>
       </c>
+      <c r="D593" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L593">
         <v>0.847</v>
       </c>
@@ -14023,6 +15842,9 @@
       <c r="C594" t="s">
         <v>117</v>
       </c>
+      <c r="D594" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L594">
         <v>0.833</v>
       </c>
@@ -14052,6 +15874,9 @@
       <c r="C595" t="s">
         <v>120</v>
       </c>
+      <c r="D595" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L595">
         <v>0.989</v>
       </c>
@@ -14081,6 +15906,9 @@
       <c r="C596" t="s">
         <v>121</v>
       </c>
+      <c r="D596" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L596">
         <v>0.847</v>
       </c>
@@ -14110,6 +15938,9 @@
       <c r="C597" t="s">
         <v>122</v>
       </c>
+      <c r="D597" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L597">
         <v>0.991</v>
       </c>
@@ -14130,6 +15961,9 @@
       <c r="C598" t="s">
         <v>113</v>
       </c>
+      <c r="D598" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E598">
         <v>0.717</v>
       </c>
@@ -14144,6 +15978,9 @@
       <c r="C599" t="s">
         <v>114</v>
       </c>
+      <c r="D599" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E599">
         <v>0.873</v>
       </c>
@@ -14158,6 +15995,9 @@
       <c r="C600" t="s">
         <v>115</v>
       </c>
+      <c r="D600" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E600">
         <v>0.523</v>
       </c>
@@ -14172,6 +16012,9 @@
       <c r="C601" t="s">
         <v>117</v>
       </c>
+      <c r="D601" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E601">
         <v>0.805</v>
       </c>
@@ -14186,6 +16029,9 @@
       <c r="C602" t="s">
         <v>119</v>
       </c>
+      <c r="D602" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E602">
         <v>0.596</v>
       </c>
@@ -14200,6 +16046,9 @@
       <c r="C603" t="s">
         <v>120</v>
       </c>
+      <c r="D603" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E603">
         <v>0.604</v>
       </c>
@@ -14214,6 +16063,9 @@
       <c r="C604" t="s">
         <v>121</v>
       </c>
+      <c r="D604" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E604">
         <v>0.978</v>
       </c>
@@ -14228,6 +16080,9 @@
       <c r="C605" t="s">
         <v>113</v>
       </c>
+      <c r="D605" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L605">
         <v>0.823</v>
       </c>
@@ -14257,6 +16112,9 @@
       <c r="C606" t="s">
         <v>115</v>
       </c>
+      <c r="D606" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E606">
         <v>0.987</v>
       </c>
@@ -14295,6 +16153,9 @@
       <c r="C607" t="s">
         <v>116</v>
       </c>
+      <c r="D607" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L607">
         <v>0.983</v>
       </c>
@@ -14321,6 +16182,9 @@
       <c r="C608" t="s">
         <v>117</v>
       </c>
+      <c r="D608" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E608">
         <v>0.823</v>
       </c>
@@ -14371,6 +16235,9 @@
       <c r="C609" t="s">
         <v>118</v>
       </c>
+      <c r="D609" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L609">
         <v>0.9389999999999999</v>
       </c>
@@ -14385,6 +16252,9 @@
       <c r="C610" t="s">
         <v>119</v>
       </c>
+      <c r="D610" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G610">
         <v>0.695</v>
       </c>
@@ -14414,6 +16284,9 @@
       <c r="C611" t="s">
         <v>120</v>
       </c>
+      <c r="D611" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E611">
         <v>0.656</v>
       </c>
@@ -14464,6 +16337,9 @@
       <c r="C612" t="s">
         <v>121</v>
       </c>
+      <c r="D612" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E612">
         <v>0.773</v>
       </c>
@@ -14514,6 +16390,9 @@
       <c r="C613" t="s">
         <v>122</v>
       </c>
+      <c r="D613" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L613">
         <v>0.828</v>
       </c>
@@ -14534,6 +16413,9 @@
       <c r="C614" t="s">
         <v>113</v>
       </c>
+      <c r="D614" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E614">
         <v>0.955</v>
       </c>
@@ -14548,6 +16430,9 @@
       <c r="C615" t="s">
         <v>114</v>
       </c>
+      <c r="D615" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E615">
         <v>0.607</v>
       </c>
@@ -14562,6 +16447,9 @@
       <c r="C616" t="s">
         <v>115</v>
       </c>
+      <c r="D616" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E616">
         <v>0.525</v>
       </c>
@@ -14576,6 +16464,9 @@
       <c r="C617" t="s">
         <v>117</v>
       </c>
+      <c r="D617" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E617">
         <v>0.838</v>
       </c>
@@ -14590,6 +16481,9 @@
       <c r="C618" t="s">
         <v>119</v>
       </c>
+      <c r="D618" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E618">
         <v>0.532</v>
       </c>
@@ -14604,6 +16498,9 @@
       <c r="C619" t="s">
         <v>120</v>
       </c>
+      <c r="D619" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E619">
         <v>0.739</v>
       </c>
@@ -14618,6 +16515,9 @@
       <c r="C620" t="s">
         <v>121</v>
       </c>
+      <c r="D620" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E620">
         <v>0.653</v>
       </c>
@@ -14632,6 +16532,9 @@
       <c r="C621" t="s">
         <v>115</v>
       </c>
+      <c r="D621" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E621">
         <v>0.987</v>
       </c>
@@ -14646,6 +16549,9 @@
       <c r="C622" t="s">
         <v>117</v>
       </c>
+      <c r="D622" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E622">
         <v>0.751</v>
       </c>
@@ -14663,6 +16569,9 @@
       <c r="C623" t="s">
         <v>120</v>
       </c>
+      <c r="D623" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E623">
         <v>0.964</v>
       </c>
@@ -14680,6 +16589,9 @@
       <c r="C624" t="s">
         <v>121</v>
       </c>
+      <c r="D624" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E624">
         <v>0.64</v>
       </c>
@@ -14697,6 +16609,9 @@
       <c r="C625" t="s">
         <v>113</v>
       </c>
+      <c r="D625" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L625">
         <v>0.779</v>
       </c>
@@ -14726,6 +16641,9 @@
       <c r="C626" t="s">
         <v>115</v>
       </c>
+      <c r="D626" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G626">
         <v>0.9409999999999999</v>
       </c>
@@ -14761,6 +16679,9 @@
       <c r="C627" t="s">
         <v>116</v>
       </c>
+      <c r="D627" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L627">
         <v>0.989</v>
       </c>
@@ -14787,6 +16708,9 @@
       <c r="C628" t="s">
         <v>117</v>
       </c>
+      <c r="D628" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G628">
         <v>0.8169999999999999</v>
       </c>
@@ -14831,6 +16755,9 @@
       <c r="C629" t="s">
         <v>119</v>
       </c>
+      <c r="D629" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G629">
         <v>0.868</v>
       </c>
@@ -14857,6 +16784,9 @@
       <c r="C630" t="s">
         <v>120</v>
       </c>
+      <c r="D630" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G630">
         <v>0.392</v>
       </c>
@@ -14901,6 +16831,9 @@
       <c r="C631" t="s">
         <v>121</v>
       </c>
+      <c r="D631" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G631">
         <v>0.989</v>
       </c>
@@ -14945,6 +16878,9 @@
       <c r="C632" t="s">
         <v>122</v>
       </c>
+      <c r="D632" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L632">
         <v>0.772</v>
       </c>
@@ -14965,6 +16901,9 @@
       <c r="C633" t="s">
         <v>113</v>
       </c>
+      <c r="D633" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E633">
         <v>0.765</v>
       </c>
@@ -14979,6 +16918,9 @@
       <c r="C634" t="s">
         <v>114</v>
       </c>
+      <c r="D634" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E634">
         <v>0.536</v>
       </c>
@@ -14993,6 +16935,9 @@
       <c r="C635" t="s">
         <v>115</v>
       </c>
+      <c r="D635" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E635">
         <v>0.5649999999999999</v>
       </c>
@@ -15007,6 +16952,9 @@
       <c r="C636" t="s">
         <v>117</v>
       </c>
+      <c r="D636" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E636">
         <v>0.6860000000000001</v>
       </c>
@@ -15021,6 +16969,9 @@
       <c r="C637" t="s">
         <v>119</v>
       </c>
+      <c r="D637" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E637">
         <v>0.5669999999999999</v>
       </c>
@@ -15035,6 +16986,9 @@
       <c r="C638" t="s">
         <v>120</v>
       </c>
+      <c r="D638" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E638">
         <v>0.944</v>
       </c>
@@ -15049,6 +17003,9 @@
       <c r="C639" t="s">
         <v>121</v>
       </c>
+      <c r="D639" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E639">
         <v>0.677</v>
       </c>
@@ -15063,6 +17020,9 @@
       <c r="C640" t="s">
         <v>113</v>
       </c>
+      <c r="D640" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L640">
         <v>0.979</v>
       </c>
@@ -15092,6 +17052,9 @@
       <c r="C641" t="s">
         <v>115</v>
       </c>
+      <c r="D641" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E641">
         <v>0.987</v>
       </c>
@@ -15133,6 +17096,9 @@
       <c r="C642" t="s">
         <v>116</v>
       </c>
+      <c r="D642" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L642">
         <v>0.8139999999999999</v>
       </c>
@@ -15159,6 +17125,9 @@
       <c r="C643" t="s">
         <v>117</v>
       </c>
+      <c r="D643" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E643">
         <v>0.68</v>
       </c>
@@ -15209,6 +17178,9 @@
       <c r="C644" t="s">
         <v>118</v>
       </c>
+      <c r="D644" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L644">
         <v>0.77</v>
       </c>
@@ -15223,6 +17195,9 @@
       <c r="C645" t="s">
         <v>119</v>
       </c>
+      <c r="D645" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G645">
         <v>0.665</v>
       </c>
@@ -15252,6 +17227,9 @@
       <c r="C646" t="s">
         <v>120</v>
       </c>
+      <c r="D646" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E646">
         <v>0.924</v>
       </c>
@@ -15302,6 +17280,9 @@
       <c r="C647" t="s">
         <v>121</v>
       </c>
+      <c r="D647" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E647">
         <v>0.618</v>
       </c>
@@ -15352,6 +17333,9 @@
       <c r="C648" t="s">
         <v>122</v>
       </c>
+      <c r="D648" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L648">
         <v>0.982</v>
       </c>
@@ -15372,6 +17356,9 @@
       <c r="C649" t="s">
         <v>113</v>
       </c>
+      <c r="D649" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L649">
         <v>0.977</v>
       </c>
@@ -15395,6 +17382,9 @@
       <c r="C650" t="s">
         <v>115</v>
       </c>
+      <c r="D650" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L650">
         <v>0.8159999999999999</v>
       </c>
@@ -15418,6 +17408,9 @@
       <c r="C651" t="s">
         <v>116</v>
       </c>
+      <c r="D651" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L651">
         <v>0.848</v>
       </c>
@@ -15441,6 +17434,9 @@
       <c r="C652" t="s">
         <v>117</v>
       </c>
+      <c r="D652" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L652">
         <v>0.832</v>
       </c>
@@ -15464,6 +17460,9 @@
       <c r="C653" t="s">
         <v>120</v>
       </c>
+      <c r="D653" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="L653">
         <v>0.986</v>
       </c>
@@ -15487,6 +17486,9 @@
       <c r="C654" t="s">
         <v>121</v>
       </c>
+      <c r="D654" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L654">
         <v>0.847</v>
       </c>
@@ -15510,6 +17512,9 @@
       <c r="C655" t="s">
         <v>122</v>
       </c>
+      <c r="D655" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L655">
         <v>0.983</v>
       </c>
@@ -15530,6 +17535,9 @@
       <c r="C656" t="s">
         <v>113</v>
       </c>
+      <c r="D656" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="L656">
         <v>0.996</v>
       </c>
@@ -15553,6 +17561,9 @@
       <c r="C657" t="s">
         <v>115</v>
       </c>
+      <c r="D657" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G657">
         <v>0.519</v>
       </c>
@@ -15582,6 +17593,9 @@
       <c r="C658" t="s">
         <v>116</v>
       </c>
+      <c r="D658" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="L658">
         <v>0.841</v>
       </c>
@@ -15605,6 +17619,9 @@
       <c r="C659" t="s">
         <v>117</v>
       </c>
+      <c r="D659" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G659">
         <v>0.722</v>
       </c>
@@ -15643,6 +17660,9 @@
       <c r="C660" t="s">
         <v>118</v>
       </c>
+      <c r="D660" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="L660">
         <v>0.773</v>
       </c>
@@ -15657,6 +17677,9 @@
       <c r="C661" t="s">
         <v>119</v>
       </c>
+      <c r="D661" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G661">
         <v>0.485</v>
       </c>
@@ -15686,6 +17709,9 @@
       <c r="C662" t="s">
         <v>120</v>
       </c>
+      <c r="D662" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G662">
         <v>0.986</v>
       </c>
@@ -15724,6 +17750,9 @@
       <c r="C663" t="s">
         <v>121</v>
       </c>
+      <c r="D663" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G663">
         <v>0.712</v>
       </c>
@@ -15762,6 +17791,9 @@
       <c r="C664" t="s">
         <v>122</v>
       </c>
+      <c r="D664" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="L664">
         <v>0.988</v>
       </c>
@@ -15782,6 +17814,9 @@
       <c r="C665" t="s">
         <v>113</v>
       </c>
+      <c r="D665" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E665">
         <v>0.478</v>
       </c>
@@ -15796,6 +17831,9 @@
       <c r="C666" t="s">
         <v>114</v>
       </c>
+      <c r="D666" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E666">
         <v>0.606</v>
       </c>
@@ -15810,6 +17848,9 @@
       <c r="C667" t="s">
         <v>115</v>
       </c>
+      <c r="D667" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E667">
         <v>0.798</v>
       </c>
@@ -15824,6 +17865,9 @@
       <c r="C668" t="s">
         <v>117</v>
       </c>
+      <c r="D668" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E668">
         <v>0.521</v>
       </c>
@@ -15838,6 +17882,9 @@
       <c r="C669" t="s">
         <v>119</v>
       </c>
+      <c r="D669" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E669">
         <v>0.849</v>
       </c>
@@ -15852,6 +17899,9 @@
       <c r="C670" t="s">
         <v>120</v>
       </c>
+      <c r="D670" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E670">
         <v>0.438</v>
       </c>
@@ -15866,11 +17916,686 @@
       <c r="C671" t="s">
         <v>121</v>
       </c>
+      <c r="D671" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E671">
         <v>0.5620000000000001</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+    <hyperlink ref="D323" r:id="rId322"/>
+    <hyperlink ref="D324" r:id="rId323"/>
+    <hyperlink ref="D325" r:id="rId324"/>
+    <hyperlink ref="D326" r:id="rId325"/>
+    <hyperlink ref="D327" r:id="rId326"/>
+    <hyperlink ref="D328" r:id="rId327"/>
+    <hyperlink ref="D329" r:id="rId328"/>
+    <hyperlink ref="D330" r:id="rId329"/>
+    <hyperlink ref="D331" r:id="rId330"/>
+    <hyperlink ref="D332" r:id="rId331"/>
+    <hyperlink ref="D333" r:id="rId332"/>
+    <hyperlink ref="D334" r:id="rId333"/>
+    <hyperlink ref="D335" r:id="rId334"/>
+    <hyperlink ref="D336" r:id="rId335"/>
+    <hyperlink ref="D337" r:id="rId336"/>
+    <hyperlink ref="D338" r:id="rId337"/>
+    <hyperlink ref="D339" r:id="rId338"/>
+    <hyperlink ref="D340" r:id="rId339"/>
+    <hyperlink ref="D341" r:id="rId340"/>
+    <hyperlink ref="D342" r:id="rId341"/>
+    <hyperlink ref="D343" r:id="rId342"/>
+    <hyperlink ref="D344" r:id="rId343"/>
+    <hyperlink ref="D345" r:id="rId344"/>
+    <hyperlink ref="D346" r:id="rId345"/>
+    <hyperlink ref="D347" r:id="rId346"/>
+    <hyperlink ref="D348" r:id="rId347"/>
+    <hyperlink ref="D349" r:id="rId348"/>
+    <hyperlink ref="D350" r:id="rId349"/>
+    <hyperlink ref="D351" r:id="rId350"/>
+    <hyperlink ref="D352" r:id="rId351"/>
+    <hyperlink ref="D353" r:id="rId352"/>
+    <hyperlink ref="D354" r:id="rId353"/>
+    <hyperlink ref="D355" r:id="rId354"/>
+    <hyperlink ref="D356" r:id="rId355"/>
+    <hyperlink ref="D357" r:id="rId356"/>
+    <hyperlink ref="D358" r:id="rId357"/>
+    <hyperlink ref="D359" r:id="rId358"/>
+    <hyperlink ref="D360" r:id="rId359"/>
+    <hyperlink ref="D361" r:id="rId360"/>
+    <hyperlink ref="D362" r:id="rId361"/>
+    <hyperlink ref="D363" r:id="rId362"/>
+    <hyperlink ref="D364" r:id="rId363"/>
+    <hyperlink ref="D365" r:id="rId364"/>
+    <hyperlink ref="D366" r:id="rId365"/>
+    <hyperlink ref="D367" r:id="rId366"/>
+    <hyperlink ref="D368" r:id="rId367"/>
+    <hyperlink ref="D369" r:id="rId368"/>
+    <hyperlink ref="D370" r:id="rId369"/>
+    <hyperlink ref="D371" r:id="rId370"/>
+    <hyperlink ref="D372" r:id="rId371"/>
+    <hyperlink ref="D373" r:id="rId372"/>
+    <hyperlink ref="D374" r:id="rId373"/>
+    <hyperlink ref="D375" r:id="rId374"/>
+    <hyperlink ref="D376" r:id="rId375"/>
+    <hyperlink ref="D377" r:id="rId376"/>
+    <hyperlink ref="D378" r:id="rId377"/>
+    <hyperlink ref="D379" r:id="rId378"/>
+    <hyperlink ref="D380" r:id="rId379"/>
+    <hyperlink ref="D381" r:id="rId380"/>
+    <hyperlink ref="D382" r:id="rId381"/>
+    <hyperlink ref="D383" r:id="rId382"/>
+    <hyperlink ref="D384" r:id="rId383"/>
+    <hyperlink ref="D385" r:id="rId384"/>
+    <hyperlink ref="D386" r:id="rId385"/>
+    <hyperlink ref="D387" r:id="rId386"/>
+    <hyperlink ref="D388" r:id="rId387"/>
+    <hyperlink ref="D389" r:id="rId388"/>
+    <hyperlink ref="D390" r:id="rId389"/>
+    <hyperlink ref="D391" r:id="rId390"/>
+    <hyperlink ref="D392" r:id="rId391"/>
+    <hyperlink ref="D393" r:id="rId392"/>
+    <hyperlink ref="D394" r:id="rId393"/>
+    <hyperlink ref="D395" r:id="rId394"/>
+    <hyperlink ref="D396" r:id="rId395"/>
+    <hyperlink ref="D397" r:id="rId396"/>
+    <hyperlink ref="D398" r:id="rId397"/>
+    <hyperlink ref="D399" r:id="rId398"/>
+    <hyperlink ref="D400" r:id="rId399"/>
+    <hyperlink ref="D401" r:id="rId400"/>
+    <hyperlink ref="D402" r:id="rId401"/>
+    <hyperlink ref="D403" r:id="rId402"/>
+    <hyperlink ref="D404" r:id="rId403"/>
+    <hyperlink ref="D405" r:id="rId404"/>
+    <hyperlink ref="D406" r:id="rId405"/>
+    <hyperlink ref="D407" r:id="rId406"/>
+    <hyperlink ref="D408" r:id="rId407"/>
+    <hyperlink ref="D409" r:id="rId408"/>
+    <hyperlink ref="D410" r:id="rId409"/>
+    <hyperlink ref="D411" r:id="rId410"/>
+    <hyperlink ref="D412" r:id="rId411"/>
+    <hyperlink ref="D413" r:id="rId412"/>
+    <hyperlink ref="D414" r:id="rId413"/>
+    <hyperlink ref="D415" r:id="rId414"/>
+    <hyperlink ref="D416" r:id="rId415"/>
+    <hyperlink ref="D417" r:id="rId416"/>
+    <hyperlink ref="D418" r:id="rId417"/>
+    <hyperlink ref="D419" r:id="rId418"/>
+    <hyperlink ref="D420" r:id="rId419"/>
+    <hyperlink ref="D421" r:id="rId420"/>
+    <hyperlink ref="D422" r:id="rId421"/>
+    <hyperlink ref="D423" r:id="rId422"/>
+    <hyperlink ref="D424" r:id="rId423"/>
+    <hyperlink ref="D425" r:id="rId424"/>
+    <hyperlink ref="D426" r:id="rId425"/>
+    <hyperlink ref="D427" r:id="rId426"/>
+    <hyperlink ref="D428" r:id="rId427"/>
+    <hyperlink ref="D429" r:id="rId428"/>
+    <hyperlink ref="D430" r:id="rId429"/>
+    <hyperlink ref="D431" r:id="rId430"/>
+    <hyperlink ref="D432" r:id="rId431"/>
+    <hyperlink ref="D433" r:id="rId432"/>
+    <hyperlink ref="D434" r:id="rId433"/>
+    <hyperlink ref="D435" r:id="rId434"/>
+    <hyperlink ref="D436" r:id="rId435"/>
+    <hyperlink ref="D437" r:id="rId436"/>
+    <hyperlink ref="D438" r:id="rId437"/>
+    <hyperlink ref="D439" r:id="rId438"/>
+    <hyperlink ref="D440" r:id="rId439"/>
+    <hyperlink ref="D441" r:id="rId440"/>
+    <hyperlink ref="D442" r:id="rId441"/>
+    <hyperlink ref="D443" r:id="rId442"/>
+    <hyperlink ref="D444" r:id="rId443"/>
+    <hyperlink ref="D445" r:id="rId444"/>
+    <hyperlink ref="D446" r:id="rId445"/>
+    <hyperlink ref="D447" r:id="rId446"/>
+    <hyperlink ref="D448" r:id="rId447"/>
+    <hyperlink ref="D449" r:id="rId448"/>
+    <hyperlink ref="D450" r:id="rId449"/>
+    <hyperlink ref="D451" r:id="rId450"/>
+    <hyperlink ref="D452" r:id="rId451"/>
+    <hyperlink ref="D453" r:id="rId452"/>
+    <hyperlink ref="D454" r:id="rId453"/>
+    <hyperlink ref="D455" r:id="rId454"/>
+    <hyperlink ref="D456" r:id="rId455"/>
+    <hyperlink ref="D457" r:id="rId456"/>
+    <hyperlink ref="D458" r:id="rId457"/>
+    <hyperlink ref="D459" r:id="rId458"/>
+    <hyperlink ref="D460" r:id="rId459"/>
+    <hyperlink ref="D461" r:id="rId460"/>
+    <hyperlink ref="D462" r:id="rId461"/>
+    <hyperlink ref="D463" r:id="rId462"/>
+    <hyperlink ref="D464" r:id="rId463"/>
+    <hyperlink ref="D465" r:id="rId464"/>
+    <hyperlink ref="D466" r:id="rId465"/>
+    <hyperlink ref="D467" r:id="rId466"/>
+    <hyperlink ref="D468" r:id="rId467"/>
+    <hyperlink ref="D469" r:id="rId468"/>
+    <hyperlink ref="D470" r:id="rId469"/>
+    <hyperlink ref="D471" r:id="rId470"/>
+    <hyperlink ref="D472" r:id="rId471"/>
+    <hyperlink ref="D473" r:id="rId472"/>
+    <hyperlink ref="D474" r:id="rId473"/>
+    <hyperlink ref="D475" r:id="rId474"/>
+    <hyperlink ref="D476" r:id="rId475"/>
+    <hyperlink ref="D477" r:id="rId476"/>
+    <hyperlink ref="D478" r:id="rId477"/>
+    <hyperlink ref="D479" r:id="rId478"/>
+    <hyperlink ref="D480" r:id="rId479"/>
+    <hyperlink ref="D481" r:id="rId480"/>
+    <hyperlink ref="D482" r:id="rId481"/>
+    <hyperlink ref="D483" r:id="rId482"/>
+    <hyperlink ref="D484" r:id="rId483"/>
+    <hyperlink ref="D485" r:id="rId484"/>
+    <hyperlink ref="D486" r:id="rId485"/>
+    <hyperlink ref="D487" r:id="rId486"/>
+    <hyperlink ref="D488" r:id="rId487"/>
+    <hyperlink ref="D489" r:id="rId488"/>
+    <hyperlink ref="D490" r:id="rId489"/>
+    <hyperlink ref="D491" r:id="rId490"/>
+    <hyperlink ref="D492" r:id="rId491"/>
+    <hyperlink ref="D493" r:id="rId492"/>
+    <hyperlink ref="D494" r:id="rId493"/>
+    <hyperlink ref="D495" r:id="rId494"/>
+    <hyperlink ref="D496" r:id="rId495"/>
+    <hyperlink ref="D497" r:id="rId496"/>
+    <hyperlink ref="D498" r:id="rId497"/>
+    <hyperlink ref="D499" r:id="rId498"/>
+    <hyperlink ref="D500" r:id="rId499"/>
+    <hyperlink ref="D501" r:id="rId500"/>
+    <hyperlink ref="D502" r:id="rId501"/>
+    <hyperlink ref="D503" r:id="rId502"/>
+    <hyperlink ref="D504" r:id="rId503"/>
+    <hyperlink ref="D505" r:id="rId504"/>
+    <hyperlink ref="D506" r:id="rId505"/>
+    <hyperlink ref="D507" r:id="rId506"/>
+    <hyperlink ref="D508" r:id="rId507"/>
+    <hyperlink ref="D509" r:id="rId508"/>
+    <hyperlink ref="D510" r:id="rId509"/>
+    <hyperlink ref="D511" r:id="rId510"/>
+    <hyperlink ref="D512" r:id="rId511"/>
+    <hyperlink ref="D513" r:id="rId512"/>
+    <hyperlink ref="D514" r:id="rId513"/>
+    <hyperlink ref="D515" r:id="rId514"/>
+    <hyperlink ref="D516" r:id="rId515"/>
+    <hyperlink ref="D517" r:id="rId516"/>
+    <hyperlink ref="D518" r:id="rId517"/>
+    <hyperlink ref="D519" r:id="rId518"/>
+    <hyperlink ref="D520" r:id="rId519"/>
+    <hyperlink ref="D521" r:id="rId520"/>
+    <hyperlink ref="D522" r:id="rId521"/>
+    <hyperlink ref="D523" r:id="rId522"/>
+    <hyperlink ref="D524" r:id="rId523"/>
+    <hyperlink ref="D525" r:id="rId524"/>
+    <hyperlink ref="D526" r:id="rId525"/>
+    <hyperlink ref="D527" r:id="rId526"/>
+    <hyperlink ref="D528" r:id="rId527"/>
+    <hyperlink ref="D529" r:id="rId528"/>
+    <hyperlink ref="D530" r:id="rId529"/>
+    <hyperlink ref="D531" r:id="rId530"/>
+    <hyperlink ref="D532" r:id="rId531"/>
+    <hyperlink ref="D533" r:id="rId532"/>
+    <hyperlink ref="D534" r:id="rId533"/>
+    <hyperlink ref="D535" r:id="rId534"/>
+    <hyperlink ref="D536" r:id="rId535"/>
+    <hyperlink ref="D537" r:id="rId536"/>
+    <hyperlink ref="D538" r:id="rId537"/>
+    <hyperlink ref="D539" r:id="rId538"/>
+    <hyperlink ref="D540" r:id="rId539"/>
+    <hyperlink ref="D541" r:id="rId540"/>
+    <hyperlink ref="D542" r:id="rId541"/>
+    <hyperlink ref="D543" r:id="rId542"/>
+    <hyperlink ref="D544" r:id="rId543"/>
+    <hyperlink ref="D545" r:id="rId544"/>
+    <hyperlink ref="D546" r:id="rId545"/>
+    <hyperlink ref="D547" r:id="rId546"/>
+    <hyperlink ref="D548" r:id="rId547"/>
+    <hyperlink ref="D549" r:id="rId548"/>
+    <hyperlink ref="D550" r:id="rId549"/>
+    <hyperlink ref="D551" r:id="rId550"/>
+    <hyperlink ref="D552" r:id="rId551"/>
+    <hyperlink ref="D553" r:id="rId552"/>
+    <hyperlink ref="D554" r:id="rId553"/>
+    <hyperlink ref="D555" r:id="rId554"/>
+    <hyperlink ref="D556" r:id="rId555"/>
+    <hyperlink ref="D557" r:id="rId556"/>
+    <hyperlink ref="D558" r:id="rId557"/>
+    <hyperlink ref="D559" r:id="rId558"/>
+    <hyperlink ref="D560" r:id="rId559"/>
+    <hyperlink ref="D561" r:id="rId560"/>
+    <hyperlink ref="D562" r:id="rId561"/>
+    <hyperlink ref="D563" r:id="rId562"/>
+    <hyperlink ref="D564" r:id="rId563"/>
+    <hyperlink ref="D565" r:id="rId564"/>
+    <hyperlink ref="D566" r:id="rId565"/>
+    <hyperlink ref="D567" r:id="rId566"/>
+    <hyperlink ref="D568" r:id="rId567"/>
+    <hyperlink ref="D569" r:id="rId568"/>
+    <hyperlink ref="D570" r:id="rId569"/>
+    <hyperlink ref="D571" r:id="rId570"/>
+    <hyperlink ref="D572" r:id="rId571"/>
+    <hyperlink ref="D573" r:id="rId572"/>
+    <hyperlink ref="D574" r:id="rId573"/>
+    <hyperlink ref="D575" r:id="rId574"/>
+    <hyperlink ref="D576" r:id="rId575"/>
+    <hyperlink ref="D577" r:id="rId576"/>
+    <hyperlink ref="D578" r:id="rId577"/>
+    <hyperlink ref="D579" r:id="rId578"/>
+    <hyperlink ref="D580" r:id="rId579"/>
+    <hyperlink ref="D581" r:id="rId580"/>
+    <hyperlink ref="D582" r:id="rId581"/>
+    <hyperlink ref="D583" r:id="rId582"/>
+    <hyperlink ref="D584" r:id="rId583"/>
+    <hyperlink ref="D585" r:id="rId584"/>
+    <hyperlink ref="D586" r:id="rId585"/>
+    <hyperlink ref="D587" r:id="rId586"/>
+    <hyperlink ref="D588" r:id="rId587"/>
+    <hyperlink ref="D589" r:id="rId588"/>
+    <hyperlink ref="D590" r:id="rId589"/>
+    <hyperlink ref="D591" r:id="rId590"/>
+    <hyperlink ref="D592" r:id="rId591"/>
+    <hyperlink ref="D593" r:id="rId592"/>
+    <hyperlink ref="D594" r:id="rId593"/>
+    <hyperlink ref="D595" r:id="rId594"/>
+    <hyperlink ref="D596" r:id="rId595"/>
+    <hyperlink ref="D597" r:id="rId596"/>
+    <hyperlink ref="D598" r:id="rId597"/>
+    <hyperlink ref="D599" r:id="rId598"/>
+    <hyperlink ref="D600" r:id="rId599"/>
+    <hyperlink ref="D601" r:id="rId600"/>
+    <hyperlink ref="D602" r:id="rId601"/>
+    <hyperlink ref="D603" r:id="rId602"/>
+    <hyperlink ref="D604" r:id="rId603"/>
+    <hyperlink ref="D605" r:id="rId604"/>
+    <hyperlink ref="D606" r:id="rId605"/>
+    <hyperlink ref="D607" r:id="rId606"/>
+    <hyperlink ref="D608" r:id="rId607"/>
+    <hyperlink ref="D609" r:id="rId608"/>
+    <hyperlink ref="D610" r:id="rId609"/>
+    <hyperlink ref="D611" r:id="rId610"/>
+    <hyperlink ref="D612" r:id="rId611"/>
+    <hyperlink ref="D613" r:id="rId612"/>
+    <hyperlink ref="D614" r:id="rId613"/>
+    <hyperlink ref="D615" r:id="rId614"/>
+    <hyperlink ref="D616" r:id="rId615"/>
+    <hyperlink ref="D617" r:id="rId616"/>
+    <hyperlink ref="D618" r:id="rId617"/>
+    <hyperlink ref="D619" r:id="rId618"/>
+    <hyperlink ref="D620" r:id="rId619"/>
+    <hyperlink ref="D621" r:id="rId620"/>
+    <hyperlink ref="D622" r:id="rId621"/>
+    <hyperlink ref="D623" r:id="rId622"/>
+    <hyperlink ref="D624" r:id="rId623"/>
+    <hyperlink ref="D625" r:id="rId624"/>
+    <hyperlink ref="D626" r:id="rId625"/>
+    <hyperlink ref="D627" r:id="rId626"/>
+    <hyperlink ref="D628" r:id="rId627"/>
+    <hyperlink ref="D629" r:id="rId628"/>
+    <hyperlink ref="D630" r:id="rId629"/>
+    <hyperlink ref="D631" r:id="rId630"/>
+    <hyperlink ref="D632" r:id="rId631"/>
+    <hyperlink ref="D633" r:id="rId632"/>
+    <hyperlink ref="D634" r:id="rId633"/>
+    <hyperlink ref="D635" r:id="rId634"/>
+    <hyperlink ref="D636" r:id="rId635"/>
+    <hyperlink ref="D637" r:id="rId636"/>
+    <hyperlink ref="D638" r:id="rId637"/>
+    <hyperlink ref="D639" r:id="rId638"/>
+    <hyperlink ref="D640" r:id="rId639"/>
+    <hyperlink ref="D641" r:id="rId640"/>
+    <hyperlink ref="D642" r:id="rId641"/>
+    <hyperlink ref="D643" r:id="rId642"/>
+    <hyperlink ref="D644" r:id="rId643"/>
+    <hyperlink ref="D645" r:id="rId644"/>
+    <hyperlink ref="D646" r:id="rId645"/>
+    <hyperlink ref="D647" r:id="rId646"/>
+    <hyperlink ref="D648" r:id="rId647"/>
+    <hyperlink ref="D649" r:id="rId648"/>
+    <hyperlink ref="D650" r:id="rId649"/>
+    <hyperlink ref="D651" r:id="rId650"/>
+    <hyperlink ref="D652" r:id="rId651"/>
+    <hyperlink ref="D653" r:id="rId652"/>
+    <hyperlink ref="D654" r:id="rId653"/>
+    <hyperlink ref="D655" r:id="rId654"/>
+    <hyperlink ref="D656" r:id="rId655"/>
+    <hyperlink ref="D657" r:id="rId656"/>
+    <hyperlink ref="D658" r:id="rId657"/>
+    <hyperlink ref="D659" r:id="rId658"/>
+    <hyperlink ref="D660" r:id="rId659"/>
+    <hyperlink ref="D661" r:id="rId660"/>
+    <hyperlink ref="D662" r:id="rId661"/>
+    <hyperlink ref="D663" r:id="rId662"/>
+    <hyperlink ref="D664" r:id="rId663"/>
+    <hyperlink ref="D665" r:id="rId664"/>
+    <hyperlink ref="D666" r:id="rId665"/>
+    <hyperlink ref="D667" r:id="rId666"/>
+    <hyperlink ref="D668" r:id="rId667"/>
+    <hyperlink ref="D669" r:id="rId668"/>
+    <hyperlink ref="D670" r:id="rId669"/>
+    <hyperlink ref="D671" r:id="rId670"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>